--- a/Sondage.xlsx
+++ b/Sondage.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="HealthScore" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -9281,4 +9282,8945 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>Code_CLI</t>
+        </is>
+      </c>
+      <c r="B1" s="16" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="C1" s="16" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="D1" s="16" t="inlineStr">
+        <is>
+          <t>Naissance</t>
+        </is>
+      </c>
+      <c r="E1" s="16" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="F1" s="16" t="inlineStr">
+        <is>
+          <t>Code Postal</t>
+        </is>
+      </c>
+      <c r="G1" s="16" t="inlineStr">
+        <is>
+          <t>Ville</t>
+        </is>
+      </c>
+      <c r="H1" s="16" t="inlineStr">
+        <is>
+          <t>Tel</t>
+        </is>
+      </c>
+      <c r="I1" s="16" t="inlineStr">
+        <is>
+          <t>Aliment1</t>
+        </is>
+      </c>
+      <c r="J1" s="16" t="inlineStr">
+        <is>
+          <t>Aliment2</t>
+        </is>
+      </c>
+      <c r="K1" s="16" t="inlineStr">
+        <is>
+          <t>Aliment3</t>
+        </is>
+      </c>
+      <c r="L1" s="16" t="inlineStr">
+        <is>
+          <t>Aliment4</t>
+        </is>
+      </c>
+      <c r="M1" s="16" t="inlineStr">
+        <is>
+          <t>Aliment5</t>
+        </is>
+      </c>
+      <c r="N1" s="16" t="inlineStr">
+        <is>
+          <t>Aliment6</t>
+        </is>
+      </c>
+      <c r="O1" s="16" t="inlineStr">
+        <is>
+          <t>Aliment7</t>
+        </is>
+      </c>
+      <c r="P1" s="16" t="inlineStr">
+        <is>
+          <t>Aliment8</t>
+        </is>
+      </c>
+      <c r="Q1" s="16" t="inlineStr">
+        <is>
+          <t>Aliment9</t>
+        </is>
+      </c>
+      <c r="R1" s="16" t="inlineStr">
+        <is>
+          <t>Aliment10</t>
+        </is>
+      </c>
+      <c r="S1" s="16" t="inlineStr">
+        <is>
+          <t>Sucres (g/100 g)</t>
+        </is>
+      </c>
+      <c r="T1" s="16" t="inlineStr">
+        <is>
+          <t>Sel chlorure de sodium (g/100 g)</t>
+        </is>
+      </c>
+      <c r="U1" s="16" t="inlineStr">
+        <is>
+          <t>AG saturés (g/100 g)</t>
+        </is>
+      </c>
+      <c r="V1" s="16" t="inlineStr">
+        <is>
+          <t>Polyols totaux (g/100 g)</t>
+        </is>
+      </c>
+      <c r="W1" s="16" t="inlineStr">
+        <is>
+          <t>Protéines, N x 625 (g/100 g)</t>
+        </is>
+      </c>
+      <c r="X1" s="16" t="inlineStr">
+        <is>
+          <t>Fibres alimentaires (g/100 g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BEDEM</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DEMATHIEU</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1984-04-07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81, boulevard de Gregoire</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0393041273</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>40201</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6151</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40204</v>
+      </c>
+      <c r="L2" t="n">
+        <v>40003</v>
+      </c>
+      <c r="M2" t="n">
+        <v>40103</v>
+      </c>
+      <c r="N2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6259</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6257</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>40118</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6271</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1742</v>
+      </c>
+      <c r="U2" t="n">
+        <v>320.5419</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>20370.31</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MADEO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEOLIVIER</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Matthieu</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1969-12-24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>104, impasse Labbe</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>+33 (0)4 17 80 88 76</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>36700</v>
+      </c>
+      <c r="J3" t="n">
+        <v>36050</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>36702</v>
+      </c>
+      <c r="M3" t="n">
+        <v>36101</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21520</v>
+      </c>
+      <c r="O3" t="n">
+        <v>21524</v>
+      </c>
+      <c r="P3" t="n">
+        <v>36206</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14008</v>
+      </c>
+      <c r="R3" t="n">
+        <v>21509</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="U3" t="n">
+        <v>190.3029</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>19440.53</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LAROCHE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pierre</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1962-10-13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70, boulevard Marguerite Traore</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0407632914</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>11105</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10006</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25635</v>
+      </c>
+      <c r="M4" t="n">
+        <v>26036</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27005</v>
+      </c>
+      <c r="O4" t="n">
+        <v>53502</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9311</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25037</v>
+      </c>
+      <c r="R4" t="n">
+        <v>76043</v>
+      </c>
+      <c r="S4" t="n">
+        <v>130.3416</v>
+      </c>
+      <c r="T4" t="n">
+        <v>20.20441901</v>
+      </c>
+      <c r="U4" t="n">
+        <v>160.173312</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6280.2417</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1050.2513</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JÉMOR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MORVAN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jérôme</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1970-07-19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25, rue de Brunet</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>+33 7 43 64 46 76</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1028</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13108</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12105</v>
+      </c>
+      <c r="L5" t="n">
+        <v>25968</v>
+      </c>
+      <c r="M5" t="n">
+        <v>25531</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10082</v>
+      </c>
+      <c r="O5" t="n">
+        <v>26005</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1016</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12010</v>
+      </c>
+      <c r="R5" t="n">
+        <v>26008</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3100.1817</v>
+      </c>
+      <c r="T5" t="n">
+        <v>30.304803</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2280.392808</v>
+      </c>
+      <c r="V5" t="n">
+        <v>10.000004</v>
+      </c>
+      <c r="W5" t="n">
+        <v>10290.36</v>
+      </c>
+      <c r="X5" t="n">
+        <v>60.19090000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ISCHA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHAUVEAU</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Isaac</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1999-11-08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50, boulevard de Verdier</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>+33 5 68 36 52 89</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>23850</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11203</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7116</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19563</v>
+      </c>
+      <c r="M6" t="n">
+        <v>28801</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2366</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19044</v>
+      </c>
+      <c r="P6" t="n">
+        <v>31009</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>51502</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2016</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11270.4605</v>
+      </c>
+      <c r="T6" t="n">
+        <v>70.37371215</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2210.332001</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5310.1934</v>
+      </c>
+      <c r="X6" t="n">
+        <v>170.3914</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DAPAR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PARIS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1986-03-23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3, place Amélie Hoarau</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>+33 (0)2 86 23 25 94</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>11038</v>
+      </c>
+      <c r="J7" t="n">
+        <v>28858</v>
+      </c>
+      <c r="K7" t="n">
+        <v>32138</v>
+      </c>
+      <c r="L7" t="n">
+        <v>40053</v>
+      </c>
+      <c r="M7" t="n">
+        <v>19548</v>
+      </c>
+      <c r="N7" t="n">
+        <v>26128</v>
+      </c>
+      <c r="O7" t="n">
+        <v>19542</v>
+      </c>
+      <c r="P7" t="n">
+        <v>19651</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>26106</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12755</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5070.3404</v>
+      </c>
+      <c r="T7" t="n">
+        <v>50.15269999999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2170.391003</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8480.4112</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4080.1313</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GIBEN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BENOIT-NOEL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Gilbert</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1960-06-24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>rue Paulette Bernard</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>+33 9 26 71 26 28</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>26031</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20326</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26088</v>
+      </c>
+      <c r="L8" t="n">
+        <v>27011</v>
+      </c>
+      <c r="M8" t="n">
+        <v>18220</v>
+      </c>
+      <c r="N8" t="n">
+        <v>40403</v>
+      </c>
+      <c r="O8" t="n">
+        <v>11192</v>
+      </c>
+      <c r="P8" t="n">
+        <v>19420</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>19546</v>
+      </c>
+      <c r="R8" t="n">
+        <v>39228</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1090.3006</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.17431105</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1140.234006</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7360.363200000001</v>
+      </c>
+      <c r="X8" t="n">
+        <v>80.16079999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RAMOR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MORENO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1971-01-16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>16, avenue Yves Lucas</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0154591313</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20283</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24231</v>
+      </c>
+      <c r="L9" t="n">
+        <v>40005</v>
+      </c>
+      <c r="M9" t="n">
+        <v>25210</v>
+      </c>
+      <c r="N9" t="n">
+        <v>23050</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>23481</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>26033</v>
+      </c>
+      <c r="R9" t="n">
+        <v>30750</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4200.27</v>
+      </c>
+      <c r="T9" t="n">
+        <v>30.363203</v>
+      </c>
+      <c r="U9" t="n">
+        <v>260.2427</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6350.4617</v>
+      </c>
+      <c r="X9" t="n">
+        <v>110.3213</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RIAND</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1995-04-30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>impasse de Delahaye</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0517541762</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>6100</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6520</v>
+      </c>
+      <c r="K10" t="n">
+        <v>40105</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6151</v>
+      </c>
+      <c r="M10" t="n">
+        <v>36032</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6582</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6523</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6560</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6101</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6310</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.06370000000000001</v>
+      </c>
+      <c r="U10" t="n">
+        <v>220.4351</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>23420.25</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EMPIC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PICARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Emmanuel</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1973-01-04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64, boulevard Marine Neveu</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>+33 (0)4 26 06 09 40</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>32018</v>
+      </c>
+      <c r="J11" t="n">
+        <v>23941</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11178</v>
+      </c>
+      <c r="L11" t="n">
+        <v>11010</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12815</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39520</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6211</v>
+      </c>
+      <c r="P11" t="n">
+        <v>18070</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>12118</v>
+      </c>
+      <c r="R11" t="n">
+        <v>11024</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9180.252</v>
+      </c>
+      <c r="T11" t="n">
+        <v>30.274808</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3260.443807</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8530.391299999999</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2240.202</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>THHER</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HERVE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thibault</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1986-11-04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22, chemin Arnaud</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>+33 (0)5 50 43 29 41</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>36101</v>
+      </c>
+      <c r="J12" t="n">
+        <v>21501</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21509</v>
+      </c>
+      <c r="L12" t="n">
+        <v>21524</v>
+      </c>
+      <c r="M12" t="n">
+        <v>36203</v>
+      </c>
+      <c r="N12" t="n">
+        <v>36603</v>
+      </c>
+      <c r="O12" t="n">
+        <v>21522</v>
+      </c>
+      <c r="P12" t="n">
+        <v>36600</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>14008</v>
+      </c>
+      <c r="R12" t="n">
+        <v>36310</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.1627</v>
+      </c>
+      <c r="U12" t="n">
+        <v>250.2738</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>18550.46</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>VICOR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CORDIER-GAUTIER</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2004-07-22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29, chemin Jérôme Labbe</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>09 12 71 28 21</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>20192</v>
+      </c>
+      <c r="J13" t="n">
+        <v>26265</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13173</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20158</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20543</v>
+      </c>
+      <c r="N13" t="n">
+        <v>27015</v>
+      </c>
+      <c r="O13" t="n">
+        <v>36308</v>
+      </c>
+      <c r="P13" t="n">
+        <v>11207</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8910</v>
+      </c>
+      <c r="R13" t="n">
+        <v>13440</v>
+      </c>
+      <c r="S13" t="n">
+        <v>220.3007</v>
+      </c>
+      <c r="T13" t="n">
+        <v>20.223706</v>
+      </c>
+      <c r="U13" t="n">
+        <v>30.212207</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4280.4718</v>
+      </c>
+      <c r="X13" t="n">
+        <v>100.3802</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GIDUP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DUPOTTIER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gilles</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1991-12-20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>rue Raymond Raynaud</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>+33 9 81 81 64 62</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>9231</v>
+      </c>
+      <c r="J14" t="n">
+        <v>51502</v>
+      </c>
+      <c r="K14" t="n">
+        <v>25901</v>
+      </c>
+      <c r="L14" t="n">
+        <v>19584</v>
+      </c>
+      <c r="M14" t="n">
+        <v>31009</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19431</v>
+      </c>
+      <c r="O14" t="n">
+        <v>16404</v>
+      </c>
+      <c r="P14" t="n">
+        <v>38402</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12743</v>
+      </c>
+      <c r="R14" t="n">
+        <v>13720</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5130.2211</v>
+      </c>
+      <c r="T14" t="n">
+        <v>40.283611</v>
+      </c>
+      <c r="U14" t="n">
+        <v>6260.2907</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4190.354</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1180.2213</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GIGOM</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GOMES</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Gilles</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2003-04-11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91, place Arnaud</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>04 60 34 73 02</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>51502</v>
+      </c>
+      <c r="J15" t="n">
+        <v>31014</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13721</v>
+      </c>
+      <c r="L15" t="n">
+        <v>25901</v>
+      </c>
+      <c r="M15" t="n">
+        <v>23588</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7118</v>
+      </c>
+      <c r="O15" t="n">
+        <v>9902</v>
+      </c>
+      <c r="P15" t="n">
+        <v>7352</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>31009</v>
+      </c>
+      <c r="R15" t="n">
+        <v>19666</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13230.3721</v>
+      </c>
+      <c r="T15" t="n">
+        <v>20.314725</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1140.26160002</v>
+      </c>
+      <c r="V15" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="W15" t="n">
+        <v>400.4253</v>
+      </c>
+      <c r="X15" t="n">
+        <v>270.3812</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>THPRE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PREVOST</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Thibault-Guy</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1969-01-19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>boulevard de Foucher</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0319077726</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>24070</v>
+      </c>
+      <c r="J16" t="n">
+        <v>39533</v>
+      </c>
+      <c r="K16" t="n">
+        <v>39517</v>
+      </c>
+      <c r="L16" t="n">
+        <v>12763</v>
+      </c>
+      <c r="M16" t="n">
+        <v>23496</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2371</v>
+      </c>
+      <c r="O16" t="n">
+        <v>31014</v>
+      </c>
+      <c r="P16" t="n">
+        <v>23850</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>19556</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6254</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15280.4402</v>
+      </c>
+      <c r="T16" t="n">
+        <v>10.206212</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2370.30170202</v>
+      </c>
+      <c r="V16" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4330.2228</v>
+      </c>
+      <c r="X16" t="n">
+        <v>130.3912</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CHLEB</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LEBLANC</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1988-12-15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94, chemin Breton</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>+33 1 02 89 46 24</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>10018</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20005</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8026</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13412</v>
+      </c>
+      <c r="M17" t="n">
+        <v>23081</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13027</v>
+      </c>
+      <c r="O17" t="n">
+        <v>26187</v>
+      </c>
+      <c r="P17" t="n">
+        <v>20171</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>11101</v>
+      </c>
+      <c r="R17" t="n">
+        <v>25971</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3150.1909</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4150.234503</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2120.1125</v>
+      </c>
+      <c r="V17" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5180.6422</v>
+      </c>
+      <c r="X17" t="n">
+        <v>80.12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANLEC</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LECOMTE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Antoine</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1983-08-29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18, place Émilie Becker</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>+33 (0)9 38 22 40 81</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>13720</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2371</v>
+      </c>
+      <c r="K18" t="n">
+        <v>23496</v>
+      </c>
+      <c r="L18" t="n">
+        <v>36037</v>
+      </c>
+      <c r="M18" t="n">
+        <v>23415</v>
+      </c>
+      <c r="N18" t="n">
+        <v>19431</v>
+      </c>
+      <c r="O18" t="n">
+        <v>19563</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7025</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>16404</v>
+      </c>
+      <c r="R18" t="n">
+        <v>24004</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5220.3514</v>
+      </c>
+      <c r="T18" t="n">
+        <v>10.134919</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2160.392502</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2280.4228</v>
+      </c>
+      <c r="X18" t="n">
+        <v>140.2406</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>YVBAU</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BAUDRY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yves</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1997-02-24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92, rue Perrin</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>+33 8 63 34 10 68</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>32136</v>
+      </c>
+      <c r="J19" t="n">
+        <v>11219</v>
+      </c>
+      <c r="K19" t="n">
+        <v>32028</v>
+      </c>
+      <c r="L19" t="n">
+        <v>42003</v>
+      </c>
+      <c r="M19" t="n">
+        <v>17325</v>
+      </c>
+      <c r="N19" t="n">
+        <v>31081</v>
+      </c>
+      <c r="O19" t="n">
+        <v>25525</v>
+      </c>
+      <c r="P19" t="n">
+        <v>31093</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>20906</v>
+      </c>
+      <c r="R19" t="n">
+        <v>11109</v>
+      </c>
+      <c r="S19" t="n">
+        <v>13250.2811</v>
+      </c>
+      <c r="T19" t="n">
+        <v>20.27401</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1240.2938</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2220.4423</v>
+      </c>
+      <c r="X19" t="n">
+        <v>130.3927</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GAPAR</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PARENT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1999-11-16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96, place Victor Ollivier</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>+33 5 62 46 48 55</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>11510</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8903</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15028</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5030</v>
+      </c>
+      <c r="M20" t="n">
+        <v>19597</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13150</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3002</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4029</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>26129</v>
+      </c>
+      <c r="R20" t="n">
+        <v>20254</v>
+      </c>
+      <c r="S20" t="n">
+        <v>12170.3013</v>
+      </c>
+      <c r="T20" t="n">
+        <v>10.10312213</v>
+      </c>
+      <c r="U20" t="n">
+        <v>160.233605</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5240.481799999999</v>
+      </c>
+      <c r="X20" t="n">
+        <v>170.1519</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ALDEP</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DEPAUL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Alphonse</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1994-05-09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27, avenue Frédéric Diallo</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>04 34 04 04 37</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>31081</v>
+      </c>
+      <c r="J21" t="n">
+        <v>25917</v>
+      </c>
+      <c r="K21" t="n">
+        <v>42003</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20906</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17325</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11219</v>
+      </c>
+      <c r="O21" t="n">
+        <v>32136</v>
+      </c>
+      <c r="P21" t="n">
+        <v>25525</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>17100</v>
+      </c>
+      <c r="R21" t="n">
+        <v>32028</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8190.200800000001</v>
+      </c>
+      <c r="T21" t="n">
+        <v>10.23441</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2230.3638</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2190.3518</v>
+      </c>
+      <c r="X21" t="n">
+        <v>130.3627</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DOMAU</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MAURICE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Dominique</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1990-06-22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28, avenue de Joly</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>06 98 10 12 02</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>2016</v>
+      </c>
+      <c r="J22" t="n">
+        <v>31009</v>
+      </c>
+      <c r="K22" t="n">
+        <v>19044</v>
+      </c>
+      <c r="L22" t="n">
+        <v>16404</v>
+      </c>
+      <c r="M22" t="n">
+        <v>36041</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2371</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11203</v>
+      </c>
+      <c r="P22" t="n">
+        <v>23080</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>51502</v>
+      </c>
+      <c r="R22" t="n">
+        <v>36039</v>
+      </c>
+      <c r="S22" t="n">
+        <v>13200.35</v>
+      </c>
+      <c r="T22" t="n">
+        <v>10.32341909</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3140.350903</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8190.3819</v>
+      </c>
+      <c r="X22" t="n">
+        <v>110.1516</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GUVAI</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>VAILLANT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Guy</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1968-11-08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>46, place de Bousquet</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>02 13 39 20 10</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>21523</v>
+      </c>
+      <c r="J23" t="n">
+        <v>36001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>36402</v>
+      </c>
+      <c r="L23" t="n">
+        <v>36203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>36302</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21520</v>
+      </c>
+      <c r="O23" t="n">
+        <v>21503</v>
+      </c>
+      <c r="P23" t="n">
+        <v>21524</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>36702</v>
+      </c>
+      <c r="R23" t="n">
+        <v>36014</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.1037</v>
+      </c>
+      <c r="U23" t="n">
+        <v>150.4033</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>19590.41</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>THBOU</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BOULAY</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Théophile</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1964-02-07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23, rue David Devaux</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0938360237</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>25957</v>
+      </c>
+      <c r="J24" t="n">
+        <v>38402</v>
+      </c>
+      <c r="K24" t="n">
+        <v>19563</v>
+      </c>
+      <c r="L24" t="n">
+        <v>19645</v>
+      </c>
+      <c r="M24" t="n">
+        <v>19556</v>
+      </c>
+      <c r="N24" t="n">
+        <v>23415</v>
+      </c>
+      <c r="O24" t="n">
+        <v>51502</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9532</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>31014</v>
+      </c>
+      <c r="R24" t="n">
+        <v>25901</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6340.331700000001</v>
+      </c>
+      <c r="T24" t="n">
+        <v>30.35451301</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2070.23230002</v>
+      </c>
+      <c r="V24" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1310.3038</v>
+      </c>
+      <c r="X24" t="n">
+        <v>250.3118</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GUMAI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MAILLOT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Guillaume</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1974-10-30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>rue Alexandre Texier</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>+33 (0)4 82 07 55 63</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>20246</v>
+      </c>
+      <c r="J25" t="n">
+        <v>25949</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15201</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8300</v>
+      </c>
+      <c r="M25" t="n">
+        <v>13405</v>
+      </c>
+      <c r="N25" t="n">
+        <v>30130</v>
+      </c>
+      <c r="O25" t="n">
+        <v>18067</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9232</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>39700</v>
+      </c>
+      <c r="R25" t="n">
+        <v>20330</v>
+      </c>
+      <c r="S25" t="n">
+        <v>14110.3402</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10.152818</v>
+      </c>
+      <c r="U25" t="n">
+        <v>90.08190902000001</v>
+      </c>
+      <c r="V25" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2230.332</v>
+      </c>
+      <c r="X25" t="n">
+        <v>110.1702</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GÉBLA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BLANCHET</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gérard</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1966-09-01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27, chemin Geneviève Lebon</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>+33 6 91 20 05 04</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>25418</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13013</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9533</v>
+      </c>
+      <c r="L26" t="n">
+        <v>23030</v>
+      </c>
+      <c r="M26" t="n">
+        <v>12805</v>
+      </c>
+      <c r="N26" t="n">
+        <v>20030</v>
+      </c>
+      <c r="O26" t="n">
+        <v>26172</v>
+      </c>
+      <c r="P26" t="n">
+        <v>9621</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>22000</v>
+      </c>
+      <c r="R26" t="n">
+        <v>17640</v>
+      </c>
+      <c r="S26" t="n">
+        <v>6200.2218</v>
+      </c>
+      <c r="T26" t="n">
+        <v>20.18250901</v>
+      </c>
+      <c r="U26" t="n">
+        <v>3210.472502</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.000602</v>
+      </c>
+      <c r="W26" t="n">
+        <v>4390.4215</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4260.2005</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RÉDEL</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DELMAS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Rémy-Thibault</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1977-08-20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5, rue de Jacob</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>03 17 10 55 09</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>25152</v>
+      </c>
+      <c r="J27" t="n">
+        <v>19541</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12119</v>
+      </c>
+      <c r="L27" t="n">
+        <v>76103</v>
+      </c>
+      <c r="M27" t="n">
+        <v>19659</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6206</v>
+      </c>
+      <c r="O27" t="n">
+        <v>20279</v>
+      </c>
+      <c r="P27" t="n">
+        <v>26206</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>20041</v>
+      </c>
+      <c r="R27" t="n">
+        <v>19122</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1210.3319</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10.17441205</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2090.254119</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>6260.4631</v>
+      </c>
+      <c r="X27" t="n">
+        <v>70.1724</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ALBAR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BARBE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Alfred</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1971-07-09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2, rue de Lelievre</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>+33 (0)6 34 42 23 28</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>20015</v>
+      </c>
+      <c r="J28" t="n">
+        <v>28858</v>
+      </c>
+      <c r="K28" t="n">
+        <v>25437</v>
+      </c>
+      <c r="L28" t="n">
+        <v>13056</v>
+      </c>
+      <c r="M28" t="n">
+        <v>15202</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10006</v>
+      </c>
+      <c r="O28" t="n">
+        <v>26240</v>
+      </c>
+      <c r="P28" t="n">
+        <v>31047</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>76014</v>
+      </c>
+      <c r="R28" t="n">
+        <v>8373</v>
+      </c>
+      <c r="S28" t="n">
+        <v>8060.3718</v>
+      </c>
+      <c r="T28" t="n">
+        <v>80.19361701999999</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3150.2708</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8350.300499999999</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1160.2105</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ÉMMIL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MILLET-SCHMITT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Émile</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1990-09-01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20, rue Chevalier</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>+33 (0)3 35 66 95 32</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>8552</v>
+      </c>
+      <c r="J29" t="n">
+        <v>20136</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11166</v>
+      </c>
+      <c r="L29" t="n">
+        <v>15004</v>
+      </c>
+      <c r="M29" t="n">
+        <v>26194</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11202</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2080</v>
+      </c>
+      <c r="P29" t="n">
+        <v>26234</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>17640</v>
+      </c>
+      <c r="R29" t="n">
+        <v>9816</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1100.2007</v>
+      </c>
+      <c r="T29" t="n">
+        <v>40.192405</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2210.3226050108</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5390.431</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1040.4005</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PIFER</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Pierre</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1970-06-17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7, boulevard de Remy</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>+33 9 02 42 10 34</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>40302</v>
+      </c>
+      <c r="J30" t="n">
+        <v>25945</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9690</v>
+      </c>
+      <c r="L30" t="n">
+        <v>32134</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6905</v>
+      </c>
+      <c r="N30" t="n">
+        <v>25549</v>
+      </c>
+      <c r="O30" t="n">
+        <v>26038</v>
+      </c>
+      <c r="P30" t="n">
+        <v>40104</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>27010</v>
+      </c>
+      <c r="R30" t="n">
+        <v>11168</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3100.1618</v>
+      </c>
+      <c r="T30" t="n">
+        <v>10.364103</v>
+      </c>
+      <c r="U30" t="n">
+        <v>90.2655</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>9330.361699999999</v>
+      </c>
+      <c r="X30" t="n">
+        <v>160.182</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GEGOM</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GOMES</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Georges</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1998-06-22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>chemin Bertrand Richard</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0275971327</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>25479</v>
+      </c>
+      <c r="J31" t="n">
+        <v>32110</v>
+      </c>
+      <c r="K31" t="n">
+        <v>38105</v>
+      </c>
+      <c r="L31" t="n">
+        <v>11094</v>
+      </c>
+      <c r="M31" t="n">
+        <v>20238</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2027</v>
+      </c>
+      <c r="O31" t="n">
+        <v>25537</v>
+      </c>
+      <c r="P31" t="n">
+        <v>10015</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>20275</v>
+      </c>
+      <c r="R31" t="n">
+        <v>25410</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2220.4722</v>
+      </c>
+      <c r="T31" t="n">
+        <v>40.173219</v>
+      </c>
+      <c r="U31" t="n">
+        <v>140.363917</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2470.5232</v>
+      </c>
+      <c r="X31" t="n">
+        <v>190.4119</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BEJAC</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JACQUES</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1985-03-23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4, chemin Masson</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>+33 2 94 94 43 23</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>36014</v>
+      </c>
+      <c r="J32" t="n">
+        <v>36051</v>
+      </c>
+      <c r="K32" t="n">
+        <v>36204</v>
+      </c>
+      <c r="L32" t="n">
+        <v>36050</v>
+      </c>
+      <c r="M32" t="n">
+        <v>36001</v>
+      </c>
+      <c r="N32" t="n">
+        <v>21501</v>
+      </c>
+      <c r="O32" t="n">
+        <v>21509</v>
+      </c>
+      <c r="P32" t="n">
+        <v>21508</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>21520</v>
+      </c>
+      <c r="R32" t="n">
+        <v>36600</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.1433</v>
+      </c>
+      <c r="U32" t="n">
+        <v>270.3233</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>18540.53</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FRRIO</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RIOU</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>François</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1993-08-03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5, chemin Joubert</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>+33 8 65 29 95 18</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>18151</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9320</v>
+      </c>
+      <c r="K33" t="n">
+        <v>26107</v>
+      </c>
+      <c r="L33" t="n">
+        <v>23586</v>
+      </c>
+      <c r="M33" t="n">
+        <v>11170</v>
+      </c>
+      <c r="N33" t="n">
+        <v>20002</v>
+      </c>
+      <c r="O33" t="n">
+        <v>11097</v>
+      </c>
+      <c r="P33" t="n">
+        <v>51500</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>11187</v>
+      </c>
+      <c r="R33" t="n">
+        <v>20201</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3240.271999999999</v>
+      </c>
+      <c r="T33" t="n">
+        <v>40.102122</v>
+      </c>
+      <c r="U33" t="n">
+        <v>100.224105</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5170.2343</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5180.252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ROPET</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PETIT</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Roland</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1979-06-29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>55, avenue de Hernandez</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>+33 5 15 13 24 67</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>25608</v>
+      </c>
+      <c r="J34" t="n">
+        <v>36304</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12800</v>
+      </c>
+      <c r="L34" t="n">
+        <v>20507</v>
+      </c>
+      <c r="M34" t="n">
+        <v>39234</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4030</v>
+      </c>
+      <c r="O34" t="n">
+        <v>25220</v>
+      </c>
+      <c r="P34" t="n">
+        <v>7711</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>8551</v>
+      </c>
+      <c r="R34" t="n">
+        <v>31113</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6160.4519</v>
+      </c>
+      <c r="T34" t="n">
+        <v>50.29431</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3160.383699999999</v>
+      </c>
+      <c r="V34" t="n">
+        <v>60.2305</v>
+      </c>
+      <c r="W34" t="n">
+        <v>5480.5641</v>
+      </c>
+      <c r="X34" t="n">
+        <v>260.3204</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AUCOL</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>COLLET</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Auguste</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2003-07-01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88, place Véronique Mace</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>+33 2 46 04 94 51</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>18344</v>
+      </c>
+      <c r="J35" t="n">
+        <v>30730</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12752</v>
+      </c>
+      <c r="L35" t="n">
+        <v>13025</v>
+      </c>
+      <c r="M35" t="n">
+        <v>11169</v>
+      </c>
+      <c r="N35" t="n">
+        <v>20508</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2002</v>
+      </c>
+      <c r="P35" t="n">
+        <v>25413</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>16400</v>
+      </c>
+      <c r="R35" t="n">
+        <v>22011</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4170.4826</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1090.31201308</v>
+      </c>
+      <c r="U35" t="n">
+        <v>6290.3522</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W35" t="n">
+        <v>5220.392608000001</v>
+      </c>
+      <c r="X35" t="n">
+        <v>100.241</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MAGAL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GALLET</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Marc</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1999-01-01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>rue Hubert</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>+33 6 31 07 01 48</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>31093</v>
+      </c>
+      <c r="J36" t="n">
+        <v>42003</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11219</v>
+      </c>
+      <c r="L36" t="n">
+        <v>20906</v>
+      </c>
+      <c r="M36" t="n">
+        <v>25525</v>
+      </c>
+      <c r="N36" t="n">
+        <v>31081</v>
+      </c>
+      <c r="O36" t="n">
+        <v>17100</v>
+      </c>
+      <c r="P36" t="n">
+        <v>11109</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>17325</v>
+      </c>
+      <c r="R36" t="n">
+        <v>17030</v>
+      </c>
+      <c r="S36" t="n">
+        <v>11230.1911</v>
+      </c>
+      <c r="T36" t="n">
+        <v>10.273203</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2310.4022</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>220.3223</v>
+      </c>
+      <c r="X36" t="n">
+        <v>60.3521</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>THLEV</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>LEVEQUE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Thibault</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1997-06-02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95, chemin Mathilde Jean</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>+33 9 49 18 39 37</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>12006</v>
+      </c>
+      <c r="J37" t="n">
+        <v>13157</v>
+      </c>
+      <c r="K37" t="n">
+        <v>36002</v>
+      </c>
+      <c r="L37" t="n">
+        <v>13409</v>
+      </c>
+      <c r="M37" t="n">
+        <v>25628</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9081</v>
+      </c>
+      <c r="O37" t="n">
+        <v>20539</v>
+      </c>
+      <c r="P37" t="n">
+        <v>20584</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6260</v>
+      </c>
+      <c r="R37" t="n">
+        <v>32115</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5090.2408</v>
+      </c>
+      <c r="T37" t="n">
+        <v>10.23281002</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1150.26290002</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>5420.441503</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2180.2908</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RANIC</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1976-06-18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>boulevard Collet</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0409201247</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>20906</v>
+      </c>
+      <c r="J38" t="n">
+        <v>42003</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11219</v>
+      </c>
+      <c r="L38" t="n">
+        <v>17100</v>
+      </c>
+      <c r="M38" t="n">
+        <v>17325</v>
+      </c>
+      <c r="N38" t="n">
+        <v>31093</v>
+      </c>
+      <c r="O38" t="n">
+        <v>11109</v>
+      </c>
+      <c r="P38" t="n">
+        <v>25917</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>32136</v>
+      </c>
+      <c r="R38" t="n">
+        <v>31081</v>
+      </c>
+      <c r="S38" t="n">
+        <v>11210.1911</v>
+      </c>
+      <c r="T38" t="n">
+        <v>10.28321</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2270.3931</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1210.4221</v>
+      </c>
+      <c r="X38" t="n">
+        <v>50.4614</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FRTEX</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TEXIER</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Frédéric</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1994-04-06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>43, boulevard Josette Chevallier</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>+33 9 37 95 54 95</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>19584</v>
+      </c>
+      <c r="J39" t="n">
+        <v>19666</v>
+      </c>
+      <c r="K39" t="n">
+        <v>36037</v>
+      </c>
+      <c r="L39" t="n">
+        <v>23850</v>
+      </c>
+      <c r="M39" t="n">
+        <v>39533</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7352</v>
+      </c>
+      <c r="O39" t="n">
+        <v>13720</v>
+      </c>
+      <c r="P39" t="n">
+        <v>23415</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>23496</v>
+      </c>
+      <c r="R39" t="n">
+        <v>23588</v>
+      </c>
+      <c r="S39" t="n">
+        <v>6330.4515</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.276709</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3340.4728</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1510.3737</v>
+      </c>
+      <c r="X39" t="n">
+        <v>90.3707</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NOTHI</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>THIBAULT</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Noël-Roland</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1993-01-12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90, impasse de Dupont</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>+33 (0)8 88 76 31 38</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>20293</v>
+      </c>
+      <c r="J40" t="n">
+        <v>12105</v>
+      </c>
+      <c r="K40" t="n">
+        <v>39503</v>
+      </c>
+      <c r="L40" t="n">
+        <v>24008</v>
+      </c>
+      <c r="M40" t="n">
+        <v>32009</v>
+      </c>
+      <c r="N40" t="n">
+        <v>19683</v>
+      </c>
+      <c r="O40" t="n">
+        <v>32111</v>
+      </c>
+      <c r="P40" t="n">
+        <v>7260</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>31005</v>
+      </c>
+      <c r="R40" t="n">
+        <v>12114</v>
+      </c>
+      <c r="S40" t="n">
+        <v>11250.23</v>
+      </c>
+      <c r="T40" t="n">
+        <v>30.264506</v>
+      </c>
+      <c r="U40" t="n">
+        <v>5340.422299999999</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W40" t="n">
+        <v>4610.4145</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2240.2609</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>THLER</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LEROUX</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Thibault</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1969-09-12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>60, impasse de Perret</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>09 00 58 07 64</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>9124</v>
+      </c>
+      <c r="J41" t="n">
+        <v>19644</v>
+      </c>
+      <c r="K41" t="n">
+        <v>13418</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7112</v>
+      </c>
+      <c r="M41" t="n">
+        <v>19041</v>
+      </c>
+      <c r="N41" t="n">
+        <v>20114</v>
+      </c>
+      <c r="O41" t="n">
+        <v>8501</v>
+      </c>
+      <c r="P41" t="n">
+        <v>16128</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>53503</v>
+      </c>
+      <c r="R41" t="n">
+        <v>20141</v>
+      </c>
+      <c r="S41" t="n">
+        <v>130.3835</v>
+      </c>
+      <c r="T41" t="n">
+        <v>10.042215</v>
+      </c>
+      <c r="U41" t="n">
+        <v>100.112122</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.0405</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1330.2733</v>
+      </c>
+      <c r="X41" t="n">
+        <v>130.19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DALAP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LAPORTE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1971-08-25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>boulevard de Maillet</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>+33 (0)1 25 09 54 07</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>19021</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27005</v>
+      </c>
+      <c r="K42" t="n">
+        <v>76023</v>
+      </c>
+      <c r="L42" t="n">
+        <v>28201</v>
+      </c>
+      <c r="M42" t="n">
+        <v>13004</v>
+      </c>
+      <c r="N42" t="n">
+        <v>27012</v>
+      </c>
+      <c r="O42" t="n">
+        <v>25504</v>
+      </c>
+      <c r="P42" t="n">
+        <v>39710</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>13029</v>
+      </c>
+      <c r="R42" t="n">
+        <v>19639</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4210.2209</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.163622</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1160.3026</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>8330.412600000001</v>
+      </c>
+      <c r="X42" t="n">
+        <v>80.08</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GEDUH</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DUHAMEL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Georges-Vincent</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2001-07-18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>boulevard Paul Regnier</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0381417631</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>20906</v>
+      </c>
+      <c r="J43" t="n">
+        <v>42003</v>
+      </c>
+      <c r="K43" t="n">
+        <v>32136</v>
+      </c>
+      <c r="L43" t="n">
+        <v>17030</v>
+      </c>
+      <c r="M43" t="n">
+        <v>11219</v>
+      </c>
+      <c r="N43" t="n">
+        <v>32028</v>
+      </c>
+      <c r="O43" t="n">
+        <v>11109</v>
+      </c>
+      <c r="P43" t="n">
+        <v>25917</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>31081</v>
+      </c>
+      <c r="R43" t="n">
+        <v>17325</v>
+      </c>
+      <c r="S43" t="n">
+        <v>8170.251099999999</v>
+      </c>
+      <c r="T43" t="n">
+        <v>20.27351</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1260.3038</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2170.3916</v>
+      </c>
+      <c r="X43" t="n">
+        <v>90.402</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>EUDEF</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DEFOURNIER</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Eugène</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1970-07-01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26, rue Raynaud</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>+33 1 99 27 92 00</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>15027</v>
+      </c>
+      <c r="J44" t="n">
+        <v>18044</v>
+      </c>
+      <c r="K44" t="n">
+        <v>20809</v>
+      </c>
+      <c r="L44" t="n">
+        <v>15004</v>
+      </c>
+      <c r="M44" t="n">
+        <v>20093</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12735</v>
+      </c>
+      <c r="O44" t="n">
+        <v>36019</v>
+      </c>
+      <c r="P44" t="n">
+        <v>19653</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>18350</v>
+      </c>
+      <c r="R44" t="n">
+        <v>36036</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1200.3518</v>
+      </c>
+      <c r="T44" t="n">
+        <v>10.12171002</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2200.222101</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.000309</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4470.282299999999</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1150.2015</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>JÉVAL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VALLET-LEMAITRE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Jérôme</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1990-04-09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66, boulevard de Briand</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>+33 (0)3 30 72 67 96</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>20912</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K45" t="n">
+        <v>27002</v>
+      </c>
+      <c r="L45" t="n">
+        <v>19436</v>
+      </c>
+      <c r="M45" t="n">
+        <v>30789</v>
+      </c>
+      <c r="N45" t="n">
+        <v>25616</v>
+      </c>
+      <c r="O45" t="n">
+        <v>20803</v>
+      </c>
+      <c r="P45" t="n">
+        <v>26200</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>24659</v>
+      </c>
+      <c r="R45" t="n">
+        <v>19641</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5150.2619</v>
+      </c>
+      <c r="T45" t="n">
+        <v>30.133217</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2170.293003</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.021006</v>
+      </c>
+      <c r="W45" t="n">
+        <v>5340.3717</v>
+      </c>
+      <c r="X45" t="n">
+        <v>30.1007</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ISEVR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>EVRARD</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Isaac</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1989-12-29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30, place Goncalves</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0712604768</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>20201</v>
+      </c>
+      <c r="J46" t="n">
+        <v>20247</v>
+      </c>
+      <c r="K46" t="n">
+        <v>25186</v>
+      </c>
+      <c r="L46" t="n">
+        <v>20511</v>
+      </c>
+      <c r="M46" t="n">
+        <v>25020</v>
+      </c>
+      <c r="N46" t="n">
+        <v>30706</v>
+      </c>
+      <c r="O46" t="n">
+        <v>11010</v>
+      </c>
+      <c r="P46" t="n">
+        <v>25403</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>26230</v>
+      </c>
+      <c r="R46" t="n">
+        <v>23410</v>
+      </c>
+      <c r="S46" t="n">
+        <v>130.3822</v>
+      </c>
+      <c r="T46" t="n">
+        <v>30.274118</v>
+      </c>
+      <c r="U46" t="n">
+        <v>280.304711</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>6320.502100000001</v>
+      </c>
+      <c r="X46" t="n">
+        <v>210.371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BEMAR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MARY</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1981-12-28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>impasse de Seguin</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>+33 1 95 32 28 75</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>32028</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11109</v>
+      </c>
+      <c r="K47" t="n">
+        <v>31093</v>
+      </c>
+      <c r="L47" t="n">
+        <v>17325</v>
+      </c>
+      <c r="M47" t="n">
+        <v>11219</v>
+      </c>
+      <c r="N47" t="n">
+        <v>42003</v>
+      </c>
+      <c r="O47" t="n">
+        <v>17100</v>
+      </c>
+      <c r="P47" t="n">
+        <v>32136</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>31081</v>
+      </c>
+      <c r="R47" t="n">
+        <v>17030</v>
+      </c>
+      <c r="S47" t="n">
+        <v>13210.2508</v>
+      </c>
+      <c r="T47" t="n">
+        <v>20.223007</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2390.3531</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2150.4321</v>
+      </c>
+      <c r="X47" t="n">
+        <v>90.32199999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GELED</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LEDUC</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Georges</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1983-03-22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>place Célina Da Costa</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>+33 (0)1 62 31 06 90</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>32136</v>
+      </c>
+      <c r="J48" t="n">
+        <v>17325</v>
+      </c>
+      <c r="K48" t="n">
+        <v>11109</v>
+      </c>
+      <c r="L48" t="n">
+        <v>31093</v>
+      </c>
+      <c r="M48" t="n">
+        <v>25917</v>
+      </c>
+      <c r="N48" t="n">
+        <v>32028</v>
+      </c>
+      <c r="O48" t="n">
+        <v>42003</v>
+      </c>
+      <c r="P48" t="n">
+        <v>20906</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>31081</v>
+      </c>
+      <c r="R48" t="n">
+        <v>17100</v>
+      </c>
+      <c r="S48" t="n">
+        <v>13180.2806</v>
+      </c>
+      <c r="T48" t="n">
+        <v>20.21281</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2310.353</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2180.4015</v>
+      </c>
+      <c r="X48" t="n">
+        <v>70.42139999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DASAL</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SALMON</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1970-03-24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>890, impasse Voisin</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>+33 7 23 83 54 64</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2079</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6254</v>
+      </c>
+      <c r="K49" t="n">
+        <v>23496</v>
+      </c>
+      <c r="L49" t="n">
+        <v>12751</v>
+      </c>
+      <c r="M49" t="n">
+        <v>28801</v>
+      </c>
+      <c r="N49" t="n">
+        <v>38402</v>
+      </c>
+      <c r="O49" t="n">
+        <v>7118</v>
+      </c>
+      <c r="P49" t="n">
+        <v>39517</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>19431</v>
+      </c>
+      <c r="R49" t="n">
+        <v>9231</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4150.4317</v>
+      </c>
+      <c r="T49" t="n">
+        <v>90.094808</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3320.4522</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>8190.3714</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1180.1604</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PHHOA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>HOAREAU</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Philippe-Robert</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1977-06-22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>975, boulevard Bazin</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>+33 6 40 25 07 47</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>36038</v>
+      </c>
+      <c r="J50" t="n">
+        <v>20253</v>
+      </c>
+      <c r="K50" t="n">
+        <v>11090</v>
+      </c>
+      <c r="L50" t="n">
+        <v>20291</v>
+      </c>
+      <c r="M50" t="n">
+        <v>10080</v>
+      </c>
+      <c r="N50" t="n">
+        <v>11065</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7740</v>
+      </c>
+      <c r="P50" t="n">
+        <v>76053</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>26159</v>
+      </c>
+      <c r="R50" t="n">
+        <v>20055</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1100.2403</v>
+      </c>
+      <c r="T50" t="n">
+        <v>10.1427110303</v>
+      </c>
+      <c r="U50" t="n">
+        <v>80.09150000000001</v>
+      </c>
+      <c r="V50" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="W50" t="n">
+        <v>3300.2317</v>
+      </c>
+      <c r="X50" t="n">
+        <v>90.19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LAPOI</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>POIRIER</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Laurent</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2004-09-18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6, impasse Marcel Antoine</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>+33 (0)1 74 09 65 52</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>6210</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4008</v>
+      </c>
+      <c r="K51" t="n">
+        <v>18160</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2061</v>
+      </c>
+      <c r="M51" t="n">
+        <v>10061</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9570</v>
+      </c>
+      <c r="O51" t="n">
+        <v>20079</v>
+      </c>
+      <c r="P51" t="n">
+        <v>76082</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>25463</v>
+      </c>
+      <c r="R51" t="n">
+        <v>25629</v>
+      </c>
+      <c r="S51" t="n">
+        <v>6080.1809</v>
+      </c>
+      <c r="T51" t="n">
+        <v>20.31271701</v>
+      </c>
+      <c r="U51" t="n">
+        <v>90.31261599999999</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W51" t="n">
+        <v>6180.3415</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1110.33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>VILEV</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>LEVALLEE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2003-07-27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22, chemin Arnaud</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>09 20 15 73 97</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>24660</v>
+      </c>
+      <c r="J52" t="n">
+        <v>51502</v>
+      </c>
+      <c r="K52" t="n">
+        <v>23080</v>
+      </c>
+      <c r="L52" t="n">
+        <v>13721</v>
+      </c>
+      <c r="M52" t="n">
+        <v>11203</v>
+      </c>
+      <c r="N52" t="n">
+        <v>19563</v>
+      </c>
+      <c r="O52" t="n">
+        <v>31009</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2079</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>24070</v>
+      </c>
+      <c r="R52" t="n">
+        <v>25901</v>
+      </c>
+      <c r="S52" t="n">
+        <v>11220.4102</v>
+      </c>
+      <c r="T52" t="n">
+        <v>30.3928</v>
+      </c>
+      <c r="U52" t="n">
+        <v>4200.3208</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>300.2741</v>
+      </c>
+      <c r="X52" t="n">
+        <v>180.2914</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>RIBAR</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BARBIER</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1974-07-09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>7, boulevard Arthur Lambert</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0186677743</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>24616</v>
+      </c>
+      <c r="J53" t="n">
+        <v>13014</v>
+      </c>
+      <c r="K53" t="n">
+        <v>11101</v>
+      </c>
+      <c r="L53" t="n">
+        <v>11057</v>
+      </c>
+      <c r="M53" t="n">
+        <v>25086</v>
+      </c>
+      <c r="N53" t="n">
+        <v>25516</v>
+      </c>
+      <c r="O53" t="n">
+        <v>25434</v>
+      </c>
+      <c r="P53" t="n">
+        <v>26024</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>10018</v>
+      </c>
+      <c r="R53" t="n">
+        <v>25584</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2190.2912</v>
+      </c>
+      <c r="T53" t="n">
+        <v>90.353703</v>
+      </c>
+      <c r="U53" t="n">
+        <v>130.2726</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1060.090105</v>
+      </c>
+      <c r="W53" t="n">
+        <v>6300.461600000001</v>
+      </c>
+      <c r="X53" t="n">
+        <v>170.2612</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>STDEC</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DECHARPENTIER</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Stéphane</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1992-03-08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>196, boulevard Catherine Giraud</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>+33 (0)3 37 21 81 71</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>15053</v>
+      </c>
+      <c r="J54" t="n">
+        <v>32000</v>
+      </c>
+      <c r="K54" t="n">
+        <v>20035</v>
+      </c>
+      <c r="L54" t="n">
+        <v>13121</v>
+      </c>
+      <c r="M54" t="n">
+        <v>25108</v>
+      </c>
+      <c r="N54" t="n">
+        <v>39530</v>
+      </c>
+      <c r="O54" t="n">
+        <v>10006</v>
+      </c>
+      <c r="P54" t="n">
+        <v>39532</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>28474</v>
+      </c>
+      <c r="R54" t="n">
+        <v>16742</v>
+      </c>
+      <c r="S54" t="n">
+        <v>8220.3117</v>
+      </c>
+      <c r="T54" t="n">
+        <v>30.082624</v>
+      </c>
+      <c r="U54" t="n">
+        <v>250.412704</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W54" t="n">
+        <v>5340.351500000001</v>
+      </c>
+      <c r="X54" t="n">
+        <v>180.3409</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>VILEB</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>LEBLOT</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1994-12-30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2, boulevard Inès Regnier</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>+33 3 88 92 19 90</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>26272</v>
+      </c>
+      <c r="J55" t="n">
+        <v>19653</v>
+      </c>
+      <c r="K55" t="n">
+        <v>28802</v>
+      </c>
+      <c r="L55" t="n">
+        <v>29209</v>
+      </c>
+      <c r="M55" t="n">
+        <v>26154</v>
+      </c>
+      <c r="N55" t="n">
+        <v>16654</v>
+      </c>
+      <c r="O55" t="n">
+        <v>20066</v>
+      </c>
+      <c r="P55" t="n">
+        <v>30366</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>39505</v>
+      </c>
+      <c r="R55" t="n">
+        <v>25126</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2210.4018</v>
+      </c>
+      <c r="T55" t="n">
+        <v>120.1849</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2200.2428</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="W55" t="n">
+        <v>6400.501600000001</v>
+      </c>
+      <c r="X55" t="n">
+        <v>70.16250000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>FRGOD</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>GODARD-ALBERT</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Franck</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1979-11-12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91, rue de Blondel</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>+33 1 35 27 56 49</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>76079</v>
+      </c>
+      <c r="J56" t="n">
+        <v>51510</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4002</v>
+      </c>
+      <c r="L56" t="n">
+        <v>13164</v>
+      </c>
+      <c r="M56" t="n">
+        <v>25151</v>
+      </c>
+      <c r="N56" t="n">
+        <v>32023</v>
+      </c>
+      <c r="O56" t="n">
+        <v>25945</v>
+      </c>
+      <c r="P56" t="n">
+        <v>20045</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>31042</v>
+      </c>
+      <c r="R56" t="n">
+        <v>8001</v>
+      </c>
+      <c r="S56" t="n">
+        <v>7160.3212</v>
+      </c>
+      <c r="T56" t="n">
+        <v>20.16361906</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1240.372906</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W56" t="n">
+        <v>3250.5127</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1260.4201</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ALGAY</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GAY</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1978-12-03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80, avenue Paul</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>+33 4 50 45 26 48</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>20808</v>
+      </c>
+      <c r="J57" t="n">
+        <v>19654</v>
+      </c>
+      <c r="K57" t="n">
+        <v>7735</v>
+      </c>
+      <c r="L57" t="n">
+        <v>23815</v>
+      </c>
+      <c r="M57" t="n">
+        <v>31059</v>
+      </c>
+      <c r="N57" t="n">
+        <v>18162</v>
+      </c>
+      <c r="O57" t="n">
+        <v>28203</v>
+      </c>
+      <c r="P57" t="n">
+        <v>11070</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>18906</v>
+      </c>
+      <c r="R57" t="n">
+        <v>19591</v>
+      </c>
+      <c r="S57" t="n">
+        <v>12260.1804</v>
+      </c>
+      <c r="T57" t="n">
+        <v>10.193812</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1190.3344</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W57" t="n">
+        <v>3340.4035</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1080.1415</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>JÉBER</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BERNARD</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Jérôme</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2002-02-27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92, impasse Marion</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>+33 6 68 57 84 28</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>26141</v>
+      </c>
+      <c r="J58" t="n">
+        <v>20999</v>
+      </c>
+      <c r="K58" t="n">
+        <v>19865</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5004</v>
+      </c>
+      <c r="M58" t="n">
+        <v>24011</v>
+      </c>
+      <c r="N58" t="n">
+        <v>6584</v>
+      </c>
+      <c r="O58" t="n">
+        <v>26018</v>
+      </c>
+      <c r="P58" t="n">
+        <v>11215</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>24015</v>
+      </c>
+      <c r="R58" t="n">
+        <v>20518</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5290.310201089999</v>
+      </c>
+      <c r="T58" t="n">
+        <v>80.20500801999999</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1220.2624</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.050004</v>
+      </c>
+      <c r="W58" t="n">
+        <v>6450.122200000001</v>
+      </c>
+      <c r="X58" t="n">
+        <v>6210.240000090001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TRRUI</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>RUIZ</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Tristan</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2004-01-23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>54, place Joséphine Fontaine</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0775667090</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>24070</v>
+      </c>
+      <c r="J59" t="n">
+        <v>24660</v>
+      </c>
+      <c r="K59" t="n">
+        <v>13721</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7116</v>
+      </c>
+      <c r="M59" t="n">
+        <v>19666</v>
+      </c>
+      <c r="N59" t="n">
+        <v>7117</v>
+      </c>
+      <c r="O59" t="n">
+        <v>6254</v>
+      </c>
+      <c r="P59" t="n">
+        <v>39517</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>23496</v>
+      </c>
+      <c r="R59" t="n">
+        <v>13720</v>
+      </c>
+      <c r="S59" t="n">
+        <v>8190.3516</v>
+      </c>
+      <c r="T59" t="n">
+        <v>30.124311</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2230.503</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>2440.3741</v>
+      </c>
+      <c r="X59" t="n">
+        <v>250.2708</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>EUDEP</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DEPAUL</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Eugène</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1994-07-24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>889, rue Albert</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0180909151</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>23412</v>
+      </c>
+      <c r="J60" t="n">
+        <v>13032</v>
+      </c>
+      <c r="K60" t="n">
+        <v>26159</v>
+      </c>
+      <c r="L60" t="n">
+        <v>20506</v>
+      </c>
+      <c r="M60" t="n">
+        <v>28501</v>
+      </c>
+      <c r="N60" t="n">
+        <v>76063</v>
+      </c>
+      <c r="O60" t="n">
+        <v>20180</v>
+      </c>
+      <c r="P60" t="n">
+        <v>42604</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>26166</v>
+      </c>
+      <c r="R60" t="n">
+        <v>10064</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3110.222</v>
+      </c>
+      <c r="T60" t="n">
+        <v>40.2932040705</v>
+      </c>
+      <c r="U60" t="n">
+        <v>130.313708</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>6460.4422</v>
+      </c>
+      <c r="X60" t="n">
+        <v>240.2918</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>GUDEL</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DELORME</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Guy</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1983-09-20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>436, boulevard Caroline Labbe</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0496211043</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>20036</v>
+      </c>
+      <c r="J61" t="n">
+        <v>11085</v>
+      </c>
+      <c r="K61" t="n">
+        <v>28007</v>
+      </c>
+      <c r="L61" t="n">
+        <v>12121</v>
+      </c>
+      <c r="M61" t="n">
+        <v>26073</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1006</v>
+      </c>
+      <c r="O61" t="n">
+        <v>20827</v>
+      </c>
+      <c r="P61" t="n">
+        <v>26180</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>7432</v>
+      </c>
+      <c r="R61" t="n">
+        <v>11217</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3160.3024</v>
+      </c>
+      <c r="T61" t="n">
+        <v>70.30260699999999</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1190.132501</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="W61" t="n">
+        <v>8370.2325</v>
+      </c>
+      <c r="X61" t="n">
+        <v>70.151</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PHLEB</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>LEBRUN</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Philippe-Benjamin</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1965-02-23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1, chemin de Gauthier</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>+33 (0)9 76 28 23 41</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>20162</v>
+      </c>
+      <c r="J62" t="n">
+        <v>28540</v>
+      </c>
+      <c r="K62" t="n">
+        <v>13148</v>
+      </c>
+      <c r="L62" t="n">
+        <v>6202</v>
+      </c>
+      <c r="M62" t="n">
+        <v>13045</v>
+      </c>
+      <c r="N62" t="n">
+        <v>26054</v>
+      </c>
+      <c r="O62" t="n">
+        <v>15029</v>
+      </c>
+      <c r="P62" t="n">
+        <v>25020</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>19673</v>
+      </c>
+      <c r="R62" t="n">
+        <v>30791</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2170.3407</v>
+      </c>
+      <c r="T62" t="n">
+        <v>50.22293005</v>
+      </c>
+      <c r="U62" t="n">
+        <v>210.363509</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W62" t="n">
+        <v>6200.592499999999</v>
+      </c>
+      <c r="X62" t="n">
+        <v>110.2205</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>WIALB</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ALBERT</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1985-01-10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>rue de Bodin</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>+33 4 38 72 85 80</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>12839</v>
+      </c>
+      <c r="J63" t="n">
+        <v>30801</v>
+      </c>
+      <c r="K63" t="n">
+        <v>9321</v>
+      </c>
+      <c r="L63" t="n">
+        <v>20261</v>
+      </c>
+      <c r="M63" t="n">
+        <v>9003</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7421</v>
+      </c>
+      <c r="O63" t="n">
+        <v>32140</v>
+      </c>
+      <c r="P63" t="n">
+        <v>9320</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>20833</v>
+      </c>
+      <c r="R63" t="n">
+        <v>13176</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2170.4308</v>
+      </c>
+      <c r="T63" t="n">
+        <v>30.13300905</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1170.202408</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>7350.501899999999</v>
+      </c>
+      <c r="X63" t="n">
+        <v>3270.180499999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>GUVIN</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>VINCENT</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Guillaume</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1985-11-15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>66, boulevard de Lacroix</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>08 86 96 84 43</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>30764</v>
+      </c>
+      <c r="J64" t="n">
+        <v>20008</v>
+      </c>
+      <c r="K64" t="n">
+        <v>18023</v>
+      </c>
+      <c r="L64" t="n">
+        <v>20231</v>
+      </c>
+      <c r="M64" t="n">
+        <v>20275</v>
+      </c>
+      <c r="N64" t="n">
+        <v>23481</v>
+      </c>
+      <c r="O64" t="n">
+        <v>12729</v>
+      </c>
+      <c r="P64" t="n">
+        <v>19553</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>23472</v>
+      </c>
+      <c r="R64" t="n">
+        <v>8300</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3300.3717</v>
+      </c>
+      <c r="T64" t="n">
+        <v>50.08211005</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1300.282718</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.06030000000000001</v>
+      </c>
+      <c r="W64" t="n">
+        <v>4270.4222</v>
+      </c>
+      <c r="X64" t="n">
+        <v>60.27</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HULES</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LESAGE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Hugues</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1981-10-21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>66, place Klein</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0479505598</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>51502</v>
+      </c>
+      <c r="J65" t="n">
+        <v>12743</v>
+      </c>
+      <c r="K65" t="n">
+        <v>11203</v>
+      </c>
+      <c r="L65" t="n">
+        <v>19563</v>
+      </c>
+      <c r="M65" t="n">
+        <v>31014</v>
+      </c>
+      <c r="N65" t="n">
+        <v>24070</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2079</v>
+      </c>
+      <c r="P65" t="n">
+        <v>23496</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>7352</v>
+      </c>
+      <c r="R65" t="n">
+        <v>23850</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10310.4105</v>
+      </c>
+      <c r="T65" t="n">
+        <v>20.364708</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2240.27220002</v>
+      </c>
+      <c r="V65" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="W65" t="n">
+        <v>2300.2331</v>
+      </c>
+      <c r="X65" t="n">
+        <v>160.5005</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PHHAR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>HARDY</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Philippe</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2001-02-19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>345, rue David Tessier</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>02 60 73 25 23</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>19542</v>
+      </c>
+      <c r="J66" t="n">
+        <v>12001</v>
+      </c>
+      <c r="K66" t="n">
+        <v>21513</v>
+      </c>
+      <c r="L66" t="n">
+        <v>13431</v>
+      </c>
+      <c r="M66" t="n">
+        <v>7409</v>
+      </c>
+      <c r="N66" t="n">
+        <v>16744</v>
+      </c>
+      <c r="O66" t="n">
+        <v>20806</v>
+      </c>
+      <c r="P66" t="n">
+        <v>26031</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>17640</v>
+      </c>
+      <c r="R66" t="n">
+        <v>20535</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1070.2316</v>
+      </c>
+      <c r="T66" t="n">
+        <v>30.2033</v>
+      </c>
+      <c r="U66" t="n">
+        <v>5240.262106000001</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="W66" t="n">
+        <v>8290.27</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1150.1005</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ÉMRAY</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>RAYNAUD</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Émile</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1982-01-13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73, chemin Carlier</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>05 06 51 18 72</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>21524</v>
+      </c>
+      <c r="J67" t="n">
+        <v>14008</v>
+      </c>
+      <c r="K67" t="n">
+        <v>21506</v>
+      </c>
+      <c r="L67" t="n">
+        <v>36014</v>
+      </c>
+      <c r="M67" t="n">
+        <v>36702</v>
+      </c>
+      <c r="N67" t="n">
+        <v>36100</v>
+      </c>
+      <c r="O67" t="n">
+        <v>36101</v>
+      </c>
+      <c r="P67" t="n">
+        <v>36700</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>36201</v>
+      </c>
+      <c r="R67" t="n">
+        <v>36206</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="U67" t="n">
+        <v>200.4432</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>18500.52</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LUBAZ</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BAZIN-BRUN</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Luc</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1970-07-14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>75, impasse Vasseur</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0106516601</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>20021</v>
+      </c>
+      <c r="J68" t="n">
+        <v>26141</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25962</v>
+      </c>
+      <c r="L68" t="n">
+        <v>8120</v>
+      </c>
+      <c r="M68" t="n">
+        <v>11084</v>
+      </c>
+      <c r="N68" t="n">
+        <v>28302</v>
+      </c>
+      <c r="O68" t="n">
+        <v>32134</v>
+      </c>
+      <c r="P68" t="n">
+        <v>53502</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>25548</v>
+      </c>
+      <c r="R68" t="n">
+        <v>30300</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3090.1925</v>
+      </c>
+      <c r="T68" t="n">
+        <v>70.354714</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2220.351713</v>
+      </c>
+      <c r="V68" t="n">
+        <v>8.080000000000001e-06</v>
+      </c>
+      <c r="W68" t="n">
+        <v>4410.382299999999</v>
+      </c>
+      <c r="X68" t="n">
+        <v>120.4111</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PADUR</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DURAND-MARCHAL</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1984-11-06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95, boulevard de Guichard</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>+33 4 58 32 82 10</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>39509</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K69" t="n">
+        <v>20092</v>
+      </c>
+      <c r="L69" t="n">
+        <v>18305</v>
+      </c>
+      <c r="M69" t="n">
+        <v>25043</v>
+      </c>
+      <c r="N69" t="n">
+        <v>8313</v>
+      </c>
+      <c r="O69" t="n">
+        <v>25909</v>
+      </c>
+      <c r="P69" t="n">
+        <v>20119</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>27025</v>
+      </c>
+      <c r="R69" t="n">
+        <v>31018</v>
+      </c>
+      <c r="S69" t="n">
+        <v>9270.3614</v>
+      </c>
+      <c r="T69" t="n">
+        <v>20.24370805</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1250.202113</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>2360.2516</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2120.2907</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ADDUH</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DUHAMEL</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Adrien</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1978-07-14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>68, rue Girard</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>+33 9 97 20 46 14</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>13024</v>
+      </c>
+      <c r="J70" t="n">
+        <v>18155</v>
+      </c>
+      <c r="K70" t="n">
+        <v>13041</v>
+      </c>
+      <c r="L70" t="n">
+        <v>30300</v>
+      </c>
+      <c r="M70" t="n">
+        <v>24631</v>
+      </c>
+      <c r="N70" t="n">
+        <v>20912</v>
+      </c>
+      <c r="O70" t="n">
+        <v>23900</v>
+      </c>
+      <c r="P70" t="n">
+        <v>9901</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>8391</v>
+      </c>
+      <c r="R70" t="n">
+        <v>20299</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5290.3412</v>
+      </c>
+      <c r="T70" t="n">
+        <v>50.33281400000001</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1230.2431</v>
+      </c>
+      <c r="V70" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="W70" t="n">
+        <v>4250.3423</v>
+      </c>
+      <c r="X70" t="n">
+        <v>80.41079999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>RABOU</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>BOUVET</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2002-03-08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23, rue Dumont</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>+33 1 86 59 96 36</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>15050</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4002</v>
+      </c>
+      <c r="K71" t="n">
+        <v>12120</v>
+      </c>
+      <c r="L71" t="n">
+        <v>20221</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4041</v>
+      </c>
+      <c r="N71" t="n">
+        <v>20506</v>
+      </c>
+      <c r="O71" t="n">
+        <v>11174</v>
+      </c>
+      <c r="P71" t="n">
+        <v>25410</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>12720</v>
+      </c>
+      <c r="R71" t="n">
+        <v>12064</v>
+      </c>
+      <c r="S71" t="n">
+        <v>120.4626</v>
+      </c>
+      <c r="T71" t="n">
+        <v>4140.36250806</v>
+      </c>
+      <c r="U71" t="n">
+        <v>4380.402314999999</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>9330.521799999999</v>
+      </c>
+      <c r="X71" t="n">
+        <v>200.3426</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>XADEM</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DEMERLE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Xavier</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1979-09-30</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>63, chemin Olivie Etienne</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>+33 5 37 89 51 18</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>12743</v>
+      </c>
+      <c r="J72" t="n">
+        <v>9532</v>
+      </c>
+      <c r="K72" t="n">
+        <v>36039</v>
+      </c>
+      <c r="L72" t="n">
+        <v>19584</v>
+      </c>
+      <c r="M72" t="n">
+        <v>13720</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2366</v>
+      </c>
+      <c r="O72" t="n">
+        <v>31014</v>
+      </c>
+      <c r="P72" t="n">
+        <v>11203</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>12751</v>
+      </c>
+      <c r="R72" t="n">
+        <v>16404</v>
+      </c>
+      <c r="S72" t="n">
+        <v>7190.280300000001</v>
+      </c>
+      <c r="T72" t="n">
+        <v>30.09382807</v>
+      </c>
+      <c r="U72" t="n">
+        <v>4250.261200020001</v>
+      </c>
+      <c r="V72" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="W72" t="n">
+        <v>6210.493000000001</v>
+      </c>
+      <c r="X72" t="n">
+        <v>100.1606</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ALCAR</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CARLIER</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Alfred</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1992-10-23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>58, avenue Fontaine</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>+33 6 10 36 54 94</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>25917</v>
+      </c>
+      <c r="J73" t="n">
+        <v>31093</v>
+      </c>
+      <c r="K73" t="n">
+        <v>25525</v>
+      </c>
+      <c r="L73" t="n">
+        <v>31081</v>
+      </c>
+      <c r="M73" t="n">
+        <v>32028</v>
+      </c>
+      <c r="N73" t="n">
+        <v>17325</v>
+      </c>
+      <c r="O73" t="n">
+        <v>11219</v>
+      </c>
+      <c r="P73" t="n">
+        <v>20906</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>42003</v>
+      </c>
+      <c r="R73" t="n">
+        <v>11109</v>
+      </c>
+      <c r="S73" t="n">
+        <v>13260.3011</v>
+      </c>
+      <c r="T73" t="n">
+        <v>20.333903</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1200.3129</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1230.3723</v>
+      </c>
+      <c r="X73" t="n">
+        <v>100.4327</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>GICAR</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CARLIER</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Gilbert</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1999-09-08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21, rue Georges Martineau</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>+33 1 69 56 72 11</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>5214</v>
+      </c>
+      <c r="J74" t="n">
+        <v>13714</v>
+      </c>
+      <c r="K74" t="n">
+        <v>19543</v>
+      </c>
+      <c r="L74" t="n">
+        <v>27016</v>
+      </c>
+      <c r="M74" t="n">
+        <v>25995</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2063</v>
+      </c>
+      <c r="O74" t="n">
+        <v>6204</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4044</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>32116</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3000</v>
+      </c>
+      <c r="S74" t="n">
+        <v>6260.3907</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.22450705</v>
+      </c>
+      <c r="U74" t="n">
+        <v>100.3128</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.040307</v>
+      </c>
+      <c r="W74" t="n">
+        <v>5330.440799999999</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2120.2221</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ÉDDEL</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DELAHAYE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Édouard</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1959-07-02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>6, chemin de Deschamps</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>+33 (0)1 10 85 08 73</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>20906</v>
+      </c>
+      <c r="J75" t="n">
+        <v>31081</v>
+      </c>
+      <c r="K75" t="n">
+        <v>17030</v>
+      </c>
+      <c r="L75" t="n">
+        <v>11219</v>
+      </c>
+      <c r="M75" t="n">
+        <v>11109</v>
+      </c>
+      <c r="N75" t="n">
+        <v>17100</v>
+      </c>
+      <c r="O75" t="n">
+        <v>32136</v>
+      </c>
+      <c r="P75" t="n">
+        <v>42003</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>31093</v>
+      </c>
+      <c r="R75" t="n">
+        <v>25917</v>
+      </c>
+      <c r="S75" t="n">
+        <v>11210.1911</v>
+      </c>
+      <c r="T75" t="n">
+        <v>10.28321</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1320.3631</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1210.4221</v>
+      </c>
+      <c r="X75" t="n">
+        <v>50.4614</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TIDER</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DEROSSI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Timothée</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1988-04-28</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>place de Legros</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>+33 8 94 79 07 59</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>25141</v>
+      </c>
+      <c r="J76" t="n">
+        <v>36027</v>
+      </c>
+      <c r="K76" t="n">
+        <v>31085</v>
+      </c>
+      <c r="L76" t="n">
+        <v>26013</v>
+      </c>
+      <c r="M76" t="n">
+        <v>76004</v>
+      </c>
+      <c r="N76" t="n">
+        <v>11210</v>
+      </c>
+      <c r="O76" t="n">
+        <v>25155</v>
+      </c>
+      <c r="P76" t="n">
+        <v>15029</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>25914</v>
+      </c>
+      <c r="R76" t="n">
+        <v>31026</v>
+      </c>
+      <c r="S76" t="n">
+        <v>8140.3313</v>
+      </c>
+      <c r="T76" t="n">
+        <v>60.29451</v>
+      </c>
+      <c r="U76" t="n">
+        <v>4120.363708999999</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W76" t="n">
+        <v>3390.572799999999</v>
+      </c>
+      <c r="X76" t="n">
+        <v>200.3722</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>THHUE</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>HUET</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Théophile-Henri</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2002-06-19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>702, chemin de Besnard</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0170806893</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>23080</v>
+      </c>
+      <c r="J77" t="n">
+        <v>24004</v>
+      </c>
+      <c r="K77" t="n">
+        <v>19584</v>
+      </c>
+      <c r="L77" t="n">
+        <v>36039</v>
+      </c>
+      <c r="M77" t="n">
+        <v>39533</v>
+      </c>
+      <c r="N77" t="n">
+        <v>9231</v>
+      </c>
+      <c r="O77" t="n">
+        <v>16404</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2371</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>12743</v>
+      </c>
+      <c r="R77" t="n">
+        <v>23496</v>
+      </c>
+      <c r="S77" t="n">
+        <v>9200.420700000001</v>
+      </c>
+      <c r="T77" t="n">
+        <v>10.11492</v>
+      </c>
+      <c r="U77" t="n">
+        <v>4410.451902000001</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>6190.471799999999</v>
+      </c>
+      <c r="X77" t="n">
+        <v>1100.2407</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MADEL</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DELAPORTE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Marcel</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1970-02-15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>39, chemin de Cousin</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>+33 5 24 33 30 06</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>9060</v>
+      </c>
+      <c r="J78" t="n">
+        <v>31046</v>
+      </c>
+      <c r="K78" t="n">
+        <v>26098</v>
+      </c>
+      <c r="L78" t="n">
+        <v>12742</v>
+      </c>
+      <c r="M78" t="n">
+        <v>40005</v>
+      </c>
+      <c r="N78" t="n">
+        <v>25231</v>
+      </c>
+      <c r="O78" t="n">
+        <v>27004</v>
+      </c>
+      <c r="P78" t="n">
+        <v>13402</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2080</v>
+      </c>
+      <c r="R78" t="n">
+        <v>20031</v>
+      </c>
+      <c r="S78" t="n">
+        <v>6070.0914</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1020.15101208</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1120.152601</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>11180.2609</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1040.03</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PADUM</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DUMERCIER</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1996-05-07</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>296, rue de Martins</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>CRIEL-SUR-MER</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0199072484</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>12763</v>
+      </c>
+      <c r="J79" t="n">
+        <v>23080</v>
+      </c>
+      <c r="K79" t="n">
+        <v>7118</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2079</v>
+      </c>
+      <c r="M79" t="n">
+        <v>7116</v>
+      </c>
+      <c r="N79" t="n">
+        <v>12828</v>
+      </c>
+      <c r="O79" t="n">
+        <v>13721</v>
+      </c>
+      <c r="P79" t="n">
+        <v>19666</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>19584</v>
+      </c>
+      <c r="R79" t="n">
+        <v>7025</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2190.191699999999</v>
+      </c>
+      <c r="T79" t="n">
+        <v>40.193709</v>
+      </c>
+      <c r="U79" t="n">
+        <v>4250.3018</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>2580.413300000001</v>
+      </c>
+      <c r="X79" t="n">
+        <v>210.1303</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>FRPRU</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PRUVOST</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Franck</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1969-01-25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>boulevard Maillet</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>05 77 12 68 56</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>32107</v>
+      </c>
+      <c r="J80" t="n">
+        <v>12060</v>
+      </c>
+      <c r="K80" t="n">
+        <v>25629</v>
+      </c>
+      <c r="L80" t="n">
+        <v>28503</v>
+      </c>
+      <c r="M80" t="n">
+        <v>37001</v>
+      </c>
+      <c r="N80" t="n">
+        <v>11068</v>
+      </c>
+      <c r="O80" t="n">
+        <v>20700</v>
+      </c>
+      <c r="P80" t="n">
+        <v>26002</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>22000</v>
+      </c>
+      <c r="R80" t="n">
+        <v>18005</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2160.2511</v>
+      </c>
+      <c r="T80" t="n">
+        <v>60.334515</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1120.3521</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>7470.312</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2290.1904</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>JABON</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BONNIN-CARON</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Jacques</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2004-06-19</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>797, place Bigot</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>01 36 55 08 93</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>24009</v>
+      </c>
+      <c r="J81" t="n">
+        <v>13126</v>
+      </c>
+      <c r="K81" t="n">
+        <v>28963</v>
+      </c>
+      <c r="L81" t="n">
+        <v>20093</v>
+      </c>
+      <c r="M81" t="n">
+        <v>6161</v>
+      </c>
+      <c r="N81" t="n">
+        <v>25537</v>
+      </c>
+      <c r="O81" t="n">
+        <v>7620</v>
+      </c>
+      <c r="P81" t="n">
+        <v>39519</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>31023</v>
+      </c>
+      <c r="R81" t="n">
+        <v>20111</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10210.2615</v>
+      </c>
+      <c r="T81" t="n">
+        <v>20.234034</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1210.243809</v>
+      </c>
+      <c r="V81" t="n">
+        <v>10.050309</v>
+      </c>
+      <c r="W81" t="n">
+        <v>5340.673</v>
+      </c>
+      <c r="X81" t="n">
+        <v>160.4519</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MADUV</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DUVASSEUR</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Marc</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1970-09-02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21, chemin Gilles Petitjean</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>+33 1 07 25 18 92</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>26077</v>
+      </c>
+      <c r="J82" t="n">
+        <v>12520</v>
+      </c>
+      <c r="K82" t="n">
+        <v>10061</v>
+      </c>
+      <c r="L82" t="n">
+        <v>26249</v>
+      </c>
+      <c r="M82" t="n">
+        <v>6902</v>
+      </c>
+      <c r="N82" t="n">
+        <v>12740</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2034</v>
+      </c>
+      <c r="P82" t="n">
+        <v>20247</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>15053</v>
+      </c>
+      <c r="R82" t="n">
+        <v>20326</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1030.2014</v>
+      </c>
+      <c r="T82" t="n">
+        <v>50.34282204000001</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2230.383310999999</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W82" t="n">
+        <v>14380.3514</v>
+      </c>
+      <c r="X82" t="n">
+        <v>130.2217</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>JEGIR</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>GIRAUD</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Jean</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1987-04-09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>59, impasse Marin</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>PETIT-CAUX</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>+33 6 15 15 38 06</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>36703</v>
+      </c>
+      <c r="J83" t="n">
+        <v>21505</v>
+      </c>
+      <c r="K83" t="n">
+        <v>21503</v>
+      </c>
+      <c r="L83" t="n">
+        <v>36204</v>
+      </c>
+      <c r="M83" t="n">
+        <v>21514</v>
+      </c>
+      <c r="N83" t="n">
+        <v>36302</v>
+      </c>
+      <c r="O83" t="n">
+        <v>36600</v>
+      </c>
+      <c r="P83" t="n">
+        <v>21501</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R83" t="n">
+        <v>36101</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.1544</v>
+      </c>
+      <c r="U83" t="n">
+        <v>320.5147</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>15620.51</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>VICHA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CHAUVEAU</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1983-07-22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80, chemin Gérard Diaz</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>0399120838</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>9231</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6254</v>
+      </c>
+      <c r="K84" t="n">
+        <v>23588</v>
+      </c>
+      <c r="L84" t="n">
+        <v>19563</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2366</v>
+      </c>
+      <c r="N84" t="n">
+        <v>16743</v>
+      </c>
+      <c r="O84" t="n">
+        <v>9902</v>
+      </c>
+      <c r="P84" t="n">
+        <v>36039</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>12828</v>
+      </c>
+      <c r="R84" t="n">
+        <v>12763</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3150.3917</v>
+      </c>
+      <c r="T84" t="n">
+        <v>10.18371806</v>
+      </c>
+      <c r="U84" t="n">
+        <v>3260.3026</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>7250.412300000001</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1040.2504</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>REGAU</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>GAUTIER-DUPUIS</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>René</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1991-07-23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>17, boulevard de Delahaye</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>+33 3 09 39 88 62</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>28844</v>
+      </c>
+      <c r="J85" t="n">
+        <v>13035</v>
+      </c>
+      <c r="K85" t="n">
+        <v>7001</v>
+      </c>
+      <c r="L85" t="n">
+        <v>13169</v>
+      </c>
+      <c r="M85" t="n">
+        <v>20228</v>
+      </c>
+      <c r="N85" t="n">
+        <v>25574</v>
+      </c>
+      <c r="O85" t="n">
+        <v>18154</v>
+      </c>
+      <c r="P85" t="n">
+        <v>31046</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>23457</v>
+      </c>
+      <c r="R85" t="n">
+        <v>25154</v>
+      </c>
+      <c r="S85" t="n">
+        <v>7220.2917</v>
+      </c>
+      <c r="T85" t="n">
+        <v>70.22231604999999</v>
+      </c>
+      <c r="U85" t="n">
+        <v>140.283602</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W85" t="n">
+        <v>3290.2622</v>
+      </c>
+      <c r="X85" t="n">
+        <v>120.2513</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ROFOU</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FOURNIER</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Roger-Roland</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1986-06-20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>57, boulevard Royer</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>02 92 72 63 66</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>25555</v>
+      </c>
+      <c r="J86" t="n">
+        <v>19577</v>
+      </c>
+      <c r="K86" t="n">
+        <v>40303</v>
+      </c>
+      <c r="L86" t="n">
+        <v>11060</v>
+      </c>
+      <c r="M86" t="n">
+        <v>19648</v>
+      </c>
+      <c r="N86" t="n">
+        <v>23456</v>
+      </c>
+      <c r="O86" t="n">
+        <v>21500</v>
+      </c>
+      <c r="P86" t="n">
+        <v>36036</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2045</v>
+      </c>
+      <c r="R86" t="n">
+        <v>8015</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3280.470600000001</v>
+      </c>
+      <c r="T86" t="n">
+        <v>20.195314</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3370.463207</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>5400.462</v>
+      </c>
+      <c r="X86" t="n">
+        <v>4050.170903</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>JAFER</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>FERNANDES-BERNIER</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Jacques</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1997-02-18</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>7, boulevard de Michaud</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>+33 (0)5 26 02 14 95</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>20201</v>
+      </c>
+      <c r="J87" t="n">
+        <v>26243</v>
+      </c>
+      <c r="K87" t="n">
+        <v>25227</v>
+      </c>
+      <c r="L87" t="n">
+        <v>15029</v>
+      </c>
+      <c r="M87" t="n">
+        <v>76031</v>
+      </c>
+      <c r="N87" t="n">
+        <v>19577</v>
+      </c>
+      <c r="O87" t="n">
+        <v>12824</v>
+      </c>
+      <c r="P87" t="n">
+        <v>26173</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>18026</v>
+      </c>
+      <c r="R87" t="n">
+        <v>20284</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1200.3221</v>
+      </c>
+      <c r="T87" t="n">
+        <v>30.164423</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1150.202912</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>4310.442</v>
+      </c>
+      <c r="X87" t="n">
+        <v>130.311603</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>JÉVOI</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>VOISIN</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Jérôme</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1965-02-09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>8, rue Robert Herve</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0480085755</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1002</v>
+      </c>
+      <c r="J88" t="n">
+        <v>20253</v>
+      </c>
+      <c r="K88" t="n">
+        <v>19672</v>
+      </c>
+      <c r="L88" t="n">
+        <v>18345</v>
+      </c>
+      <c r="M88" t="n">
+        <v>31037</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2026</v>
+      </c>
+      <c r="O88" t="n">
+        <v>28451</v>
+      </c>
+      <c r="P88" t="n">
+        <v>36019</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>25963</v>
+      </c>
+      <c r="R88" t="n">
+        <v>26239</v>
+      </c>
+      <c r="S88" t="n">
+        <v>6210.320699999999</v>
+      </c>
+      <c r="T88" t="n">
+        <v>10.23151</v>
+      </c>
+      <c r="U88" t="n">
+        <v>50.27210100000001</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.000302</v>
+      </c>
+      <c r="W88" t="n">
+        <v>3260.3415</v>
+      </c>
+      <c r="X88" t="n">
+        <v>30.1415</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ANHUE</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>HUET</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>André</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1974-09-22</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>4, impasse de Vasseur</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>+33 1 92 33 30 13</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2365</v>
+      </c>
+      <c r="J89" t="n">
+        <v>13111</v>
+      </c>
+      <c r="K89" t="n">
+        <v>31098</v>
+      </c>
+      <c r="L89" t="n">
+        <v>26073</v>
+      </c>
+      <c r="M89" t="n">
+        <v>18030</v>
+      </c>
+      <c r="N89" t="n">
+        <v>13416</v>
+      </c>
+      <c r="O89" t="n">
+        <v>39526</v>
+      </c>
+      <c r="P89" t="n">
+        <v>15020</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>23477</v>
+      </c>
+      <c r="R89" t="n">
+        <v>15018</v>
+      </c>
+      <c r="S89" t="n">
+        <v>17250.27</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.131915</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1160.213908</v>
+      </c>
+      <c r="V89" t="n">
+        <v>20.1603</v>
+      </c>
+      <c r="W89" t="n">
+        <v>3240.363612</v>
+      </c>
+      <c r="X89" t="n">
+        <v>250.410607</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>FRREM</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>REMY</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>François</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1974-02-11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89, rue Alain Hernandez</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>+33 7 43 34 60 93</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>22501</v>
+      </c>
+      <c r="J90" t="n">
+        <v>25589</v>
+      </c>
+      <c r="K90" t="n">
+        <v>76059</v>
+      </c>
+      <c r="L90" t="n">
+        <v>26077</v>
+      </c>
+      <c r="M90" t="n">
+        <v>20181</v>
+      </c>
+      <c r="N90" t="n">
+        <v>31070</v>
+      </c>
+      <c r="O90" t="n">
+        <v>26148</v>
+      </c>
+      <c r="P90" t="n">
+        <v>12762</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>19590</v>
+      </c>
+      <c r="R90" t="n">
+        <v>19692</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4160.3107</v>
+      </c>
+      <c r="T90" t="n">
+        <v>30.2030000705</v>
+      </c>
+      <c r="U90" t="n">
+        <v>4190.382302999999</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.0801</v>
+      </c>
+      <c r="W90" t="n">
+        <v>10400.3613</v>
+      </c>
+      <c r="X90" t="n">
+        <v>170.2005</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>YVBOU</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>BOURDON-GILLES</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Yves</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1993-10-13</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>78, place Émile Peltier</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>76370</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>+33 9 80 94 50 93</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>9902</v>
+      </c>
+      <c r="J91" t="n">
+        <v>13720</v>
+      </c>
+      <c r="K91" t="n">
+        <v>7118</v>
+      </c>
+      <c r="L91" t="n">
+        <v>31014</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2371</v>
+      </c>
+      <c r="N91" t="n">
+        <v>12751</v>
+      </c>
+      <c r="O91" t="n">
+        <v>16404</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2079</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>19666</v>
+      </c>
+      <c r="R91" t="n">
+        <v>19044</v>
+      </c>
+      <c r="S91" t="n">
+        <v>11200.2918</v>
+      </c>
+      <c r="T91" t="n">
+        <v>20.104231</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2160.23090202</v>
+      </c>
+      <c r="V91" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="W91" t="n">
+        <v>5180.532300000001</v>
+      </c>
+      <c r="X91" t="n">
+        <v>140.1803</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>DOMOR</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MORVAN-TORRES</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Dominique</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1964-12-15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>39, rue Hamon</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>76270</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>+33 (0)4 99 10 71 79</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>36206</v>
+      </c>
+      <c r="J92" t="n">
+        <v>21506</v>
+      </c>
+      <c r="K92" t="n">
+        <v>36014</v>
+      </c>
+      <c r="L92" t="n">
+        <v>36201</v>
+      </c>
+      <c r="M92" t="n">
+        <v>36402</v>
+      </c>
+      <c r="N92" t="n">
+        <v>14008</v>
+      </c>
+      <c r="O92" t="n">
+        <v>36603</v>
+      </c>
+      <c r="P92" t="n">
+        <v>36051</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>36702</v>
+      </c>
+      <c r="R92" t="n">
+        <v>21503</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.1943</v>
+      </c>
+      <c r="U92" t="n">
+        <v>270.4839</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>19610.44</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ALDEG</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DEGAY</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1982-08-12</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>boulevard Munoz</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>+33 6 22 65 17 68</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>16743</v>
+      </c>
+      <c r="J93" t="n">
+        <v>24004</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2079</v>
+      </c>
+      <c r="L93" t="n">
+        <v>13720</v>
+      </c>
+      <c r="M93" t="n">
+        <v>13721</v>
+      </c>
+      <c r="N93" t="n">
+        <v>23850</v>
+      </c>
+      <c r="O93" t="n">
+        <v>7117</v>
+      </c>
+      <c r="P93" t="n">
+        <v>19645</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2371</v>
+      </c>
+      <c r="R93" t="n">
+        <v>12743</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3150.3109</v>
+      </c>
+      <c r="T93" t="n">
+        <v>20.193109</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3250.271402</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>3260.3522</v>
+      </c>
+      <c r="X93" t="n">
+        <v>130.1406</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>HUBRU</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>BRUNEL</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Hugues</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1973-08-26</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>863, boulevard Anne Dufour</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>76400</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>05 39 52 01 86</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>26029</v>
+      </c>
+      <c r="J94" t="n">
+        <v>28451</v>
+      </c>
+      <c r="K94" t="n">
+        <v>10004</v>
+      </c>
+      <c r="L94" t="n">
+        <v>76024</v>
+      </c>
+      <c r="M94" t="n">
+        <v>19652</v>
+      </c>
+      <c r="N94" t="n">
+        <v>9900</v>
+      </c>
+      <c r="O94" t="n">
+        <v>16616</v>
+      </c>
+      <c r="P94" t="n">
+        <v>20542</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>31069</v>
+      </c>
+      <c r="R94" t="n">
+        <v>11115</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4100.2304</v>
+      </c>
+      <c r="T94" t="n">
+        <v>10.19512703</v>
+      </c>
+      <c r="U94" t="n">
+        <v>4150.311900000001</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="n">
+        <v>5330.300999999999</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1040.26</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CLLET</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LETELLIER-TRAORE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1991-04-05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>chemin de Denis</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>+33 (0)5 64 46 73 03</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>12836</v>
+      </c>
+      <c r="J95" t="n">
+        <v>20010</v>
+      </c>
+      <c r="K95" t="n">
+        <v>25213</v>
+      </c>
+      <c r="L95" t="n">
+        <v>38104</v>
+      </c>
+      <c r="M95" t="n">
+        <v>20274</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4027</v>
+      </c>
+      <c r="O95" t="n">
+        <v>31106</v>
+      </c>
+      <c r="P95" t="n">
+        <v>25146</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>11212</v>
+      </c>
+      <c r="R95" t="n">
+        <v>31069</v>
+      </c>
+      <c r="S95" t="n">
+        <v>6230.4223</v>
+      </c>
+      <c r="T95" t="n">
+        <v>50.26471</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3340.323504999999</v>
+      </c>
+      <c r="V95" t="n">
+        <v>60.1505</v>
+      </c>
+      <c r="W95" t="n">
+        <v>5230.482300000001</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1150.3006</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ROBAR</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>BARTHELEMY-LOUIS</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1989-08-07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>620, impasse Fernandes</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>76260</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>LE TREPORT</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>0321160210</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>32000</v>
+      </c>
+      <c r="J96" t="n">
+        <v>40104</v>
+      </c>
+      <c r="K96" t="n">
+        <v>31001</v>
+      </c>
+      <c r="L96" t="n">
+        <v>51511</v>
+      </c>
+      <c r="M96" t="n">
+        <v>32129</v>
+      </c>
+      <c r="N96" t="n">
+        <v>20266</v>
+      </c>
+      <c r="O96" t="n">
+        <v>28302</v>
+      </c>
+      <c r="P96" t="n">
+        <v>13148</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>20812</v>
+      </c>
+      <c r="R96" t="n">
+        <v>7815</v>
+      </c>
+      <c r="S96" t="n">
+        <v>12160.381408</v>
+      </c>
+      <c r="T96" t="n">
+        <v>10.172316</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1120.282</v>
+      </c>
+      <c r="V96" t="n">
+        <v>10.0906</v>
+      </c>
+      <c r="W96" t="n">
+        <v>3370.2225</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1150.3912</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>GUALV</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ALVES-REY</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Guillaume</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1980-03-21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>19, boulevard de Joseph</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>+33 (0)8 50 01 54 99</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>25963</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1010</v>
+      </c>
+      <c r="K97" t="n">
+        <v>20335</v>
+      </c>
+      <c r="L97" t="n">
+        <v>28902</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1029</v>
+      </c>
+      <c r="N97" t="n">
+        <v>12063</v>
+      </c>
+      <c r="O97" t="n">
+        <v>13051</v>
+      </c>
+      <c r="P97" t="n">
+        <v>25230</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>6900</v>
+      </c>
+      <c r="R97" t="n">
+        <v>10043</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5140.3219</v>
+      </c>
+      <c r="T97" t="n">
+        <v>60.37260903</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2260.2629</v>
+      </c>
+      <c r="V97" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="W97" t="n">
+        <v>6330.330900000001</v>
+      </c>
+      <c r="X97" t="n">
+        <v>110.1818000902</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CLLEG</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>LEGUILLAUME</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1992-09-11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>60, rue Marion</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>FLOCQUES</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>+33 2 11 52 39 76</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>25433</v>
+      </c>
+      <c r="J98" t="n">
+        <v>13157</v>
+      </c>
+      <c r="K98" t="n">
+        <v>19674</v>
+      </c>
+      <c r="L98" t="n">
+        <v>19542</v>
+      </c>
+      <c r="M98" t="n">
+        <v>30011</v>
+      </c>
+      <c r="N98" t="n">
+        <v>12526</v>
+      </c>
+      <c r="O98" t="n">
+        <v>26134</v>
+      </c>
+      <c r="P98" t="n">
+        <v>12120</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>20041</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2080</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3140.210500000001</v>
+      </c>
+      <c r="T98" t="n">
+        <v>40.22260502</v>
+      </c>
+      <c r="U98" t="n">
+        <v>4130.16120102</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="W98" t="n">
+        <v>8270.449999999999</v>
+      </c>
+      <c r="X98" t="n">
+        <v>60.1905</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>GAMOR</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MOREAU</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1976-03-24</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>5, place Lorraine Poulain</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>ETALONDES</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>09 12 79 43 46</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>11219</v>
+      </c>
+      <c r="J99" t="n">
+        <v>31093</v>
+      </c>
+      <c r="K99" t="n">
+        <v>31081</v>
+      </c>
+      <c r="L99" t="n">
+        <v>20906</v>
+      </c>
+      <c r="M99" t="n">
+        <v>32028</v>
+      </c>
+      <c r="N99" t="n">
+        <v>11109</v>
+      </c>
+      <c r="O99" t="n">
+        <v>17100</v>
+      </c>
+      <c r="P99" t="n">
+        <v>32136</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>25917</v>
+      </c>
+      <c r="R99" t="n">
+        <v>25525</v>
+      </c>
+      <c r="S99" t="n">
+        <v>13190.2811</v>
+      </c>
+      <c r="T99" t="n">
+        <v>20.32351</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1280.3033</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="n">
+        <v>2170.4018</v>
+      </c>
+      <c r="X99" t="n">
+        <v>130.4227</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>JUHAR</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>HARDY</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Jules</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1988-01-03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>68, avenue de Lelievre</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>76910</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>+33 7 57 09 48 38</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>11109</v>
+      </c>
+      <c r="J100" t="n">
+        <v>20906</v>
+      </c>
+      <c r="K100" t="n">
+        <v>31093</v>
+      </c>
+      <c r="L100" t="n">
+        <v>25525</v>
+      </c>
+      <c r="M100" t="n">
+        <v>25917</v>
+      </c>
+      <c r="N100" t="n">
+        <v>31081</v>
+      </c>
+      <c r="O100" t="n">
+        <v>11219</v>
+      </c>
+      <c r="P100" t="n">
+        <v>17100</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>17325</v>
+      </c>
+      <c r="R100" t="n">
+        <v>42003</v>
+      </c>
+      <c r="S100" t="n">
+        <v>11240.2111</v>
+      </c>
+      <c r="T100" t="n">
+        <v>10.333603</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2230.4022</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="n">
+        <v>230.3423</v>
+      </c>
+      <c r="X100" t="n">
+        <v>60.43210000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>LOBAR</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>BARBIER</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Louis</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1990-05-20</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94, impasse Gerard</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>76470</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>CANEHAN</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>+33 (0)6 88 70 34 39</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>31073</v>
+      </c>
+      <c r="J101" t="n">
+        <v>11172</v>
+      </c>
+      <c r="K101" t="n">
+        <v>9360</v>
+      </c>
+      <c r="L101" t="n">
+        <v>18352</v>
+      </c>
+      <c r="M101" t="n">
+        <v>26107</v>
+      </c>
+      <c r="N101" t="n">
+        <v>25548</v>
+      </c>
+      <c r="O101" t="n">
+        <v>32133</v>
+      </c>
+      <c r="P101" t="n">
+        <v>76018</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>19122</v>
+      </c>
+      <c r="R101" t="n">
+        <v>25479</v>
+      </c>
+      <c r="S101" t="n">
+        <v>6280.311900000001</v>
+      </c>
+      <c r="T101" t="n">
+        <v>4090.202412</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2150.2907</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="n">
+        <v>3320.3905</v>
+      </c>
+      <c r="X101" t="n">
+        <v>150.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Sondage.xlsx
+++ b/Sondage.xlsx
@@ -9493,16 +9493,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1742</v>
+        <v>2.12</v>
       </c>
       <c r="U2" t="n">
-        <v>320.5419</v>
+        <v>37.59</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>20370.31</v>
+        <v>240.1</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -9578,19 +9578,19 @@
         <v>21509</v>
       </c>
       <c r="S3" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="T3" t="n">
-        <v>0.123</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>190.3029</v>
+        <v>22.29</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19440.53</v>
+        <v>239.3</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -9666,22 +9666,22 @@
         <v>76043</v>
       </c>
       <c r="S4" t="n">
-        <v>130.3416</v>
+        <v>16.56</v>
       </c>
       <c r="T4" t="n">
-        <v>20.20441901</v>
+        <v>4.4591</v>
       </c>
       <c r="U4" t="n">
-        <v>160.173312</v>
+        <v>18.042</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6280.2417</v>
+        <v>90.57000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>1050.2513</v>
+        <v>17.63</v>
       </c>
     </row>
     <row r="5">
@@ -9754,22 +9754,22 @@
         <v>26008</v>
       </c>
       <c r="S5" t="n">
-        <v>3100.1817</v>
+        <v>41.97000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>30.304803</v>
+        <v>6.483</v>
       </c>
       <c r="U5" t="n">
-        <v>2280.392808</v>
+        <v>52.188</v>
       </c>
       <c r="V5" t="n">
-        <v>10.000004</v>
+        <v>1.004</v>
       </c>
       <c r="W5" t="n">
-        <v>10290.36</v>
+        <v>132.6</v>
       </c>
       <c r="X5" t="n">
-        <v>60.19090000000001</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="6">
@@ -9842,22 +9842,22 @@
         <v>2016</v>
       </c>
       <c r="S6" t="n">
-        <v>11270.4605</v>
+        <v>141.65</v>
       </c>
       <c r="T6" t="n">
-        <v>70.37371215</v>
+        <v>11.0835</v>
       </c>
       <c r="U6" t="n">
-        <v>2210.332001</v>
+        <v>44.501</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>5310.1934</v>
+        <v>83.23999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>170.3914</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="7">
@@ -9930,22 +9930,22 @@
         <v>12755</v>
       </c>
       <c r="S7" t="n">
-        <v>5070.3404</v>
+        <v>60.44</v>
       </c>
       <c r="T7" t="n">
-        <v>50.15269999999999</v>
+        <v>6.77</v>
       </c>
       <c r="U7" t="n">
-        <v>2170.391003</v>
+        <v>41.003</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0009</v>
+        <v>0.09</v>
       </c>
       <c r="W7" t="n">
-        <v>8480.4112</v>
+        <v>132.22</v>
       </c>
       <c r="X7" t="n">
-        <v>4080.1313</v>
+        <v>49.43</v>
       </c>
     </row>
     <row r="8">
@@ -10018,22 +10018,22 @@
         <v>39228</v>
       </c>
       <c r="S8" t="n">
-        <v>1090.3006</v>
+        <v>22.06</v>
       </c>
       <c r="T8" t="n">
-        <v>0.17431105</v>
+        <v>2.1415</v>
       </c>
       <c r="U8" t="n">
-        <v>1140.234006</v>
+        <v>26.706</v>
       </c>
       <c r="V8" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W8" t="n">
-        <v>7360.363200000001</v>
+        <v>109.92</v>
       </c>
       <c r="X8" t="n">
-        <v>80.16079999999999</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="9">
@@ -10106,22 +10106,22 @@
         <v>30750</v>
       </c>
       <c r="S9" t="n">
-        <v>4200.27</v>
+        <v>62.7</v>
       </c>
       <c r="T9" t="n">
-        <v>30.363203</v>
+        <v>6.923000000000001</v>
       </c>
       <c r="U9" t="n">
-        <v>260.2427</v>
+        <v>28.66999999999999</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>6350.4617</v>
+        <v>99.77</v>
       </c>
       <c r="X9" t="n">
-        <v>110.3213</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="10">
@@ -10197,16 +10197,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="U10" t="n">
-        <v>220.4351</v>
+        <v>26.81</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>23420.25</v>
+        <v>274.5</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -10282,22 +10282,22 @@
         <v>11024</v>
       </c>
       <c r="S11" t="n">
-        <v>9180.252</v>
+        <v>110.7</v>
       </c>
       <c r="T11" t="n">
-        <v>30.274808</v>
+        <v>6.188</v>
       </c>
       <c r="U11" t="n">
-        <v>3260.443807</v>
+        <v>60.787</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8530.391299999999</v>
+        <v>137.03</v>
       </c>
       <c r="X11" t="n">
-        <v>2240.202</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="12">
@@ -10370,19 +10370,19 @@
         <v>36310</v>
       </c>
       <c r="S12" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1627</v>
+        <v>1.87</v>
       </c>
       <c r="U12" t="n">
-        <v>250.2738</v>
+        <v>28.08</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>18550.46</v>
+        <v>239.6</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -10458,22 +10458,22 @@
         <v>13440</v>
       </c>
       <c r="S13" t="n">
-        <v>220.3007</v>
+        <v>25.07</v>
       </c>
       <c r="T13" t="n">
-        <v>20.223706</v>
+        <v>4.576000000000001</v>
       </c>
       <c r="U13" t="n">
-        <v>30.212207</v>
+        <v>5.327</v>
       </c>
       <c r="V13" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W13" t="n">
-        <v>4280.4718</v>
+        <v>72.88000000000001</v>
       </c>
       <c r="X13" t="n">
-        <v>100.3802</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="14">
@@ -10546,22 +10546,22 @@
         <v>13720</v>
       </c>
       <c r="S14" t="n">
-        <v>5130.2211</v>
+        <v>65.31</v>
       </c>
       <c r="T14" t="n">
-        <v>40.283611</v>
+        <v>7.170999999999999</v>
       </c>
       <c r="U14" t="n">
-        <v>6260.2907</v>
+        <v>88.97</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>4190.354</v>
+        <v>62.9</v>
       </c>
       <c r="X14" t="n">
-        <v>1180.2213</v>
+        <v>30.33</v>
       </c>
     </row>
     <row r="15">
@@ -10634,22 +10634,22 @@
         <v>19666</v>
       </c>
       <c r="S15" t="n">
-        <v>13230.3721</v>
+        <v>156.91</v>
       </c>
       <c r="T15" t="n">
-        <v>20.314725</v>
+        <v>5.594999999999999</v>
       </c>
       <c r="U15" t="n">
-        <v>1140.26160002</v>
+        <v>26.7602</v>
       </c>
       <c r="V15" t="n">
-        <v>10.04</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>400.4253</v>
+        <v>44.73</v>
       </c>
       <c r="X15" t="n">
-        <v>270.3812</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="16">
@@ -10722,22 +10722,22 @@
         <v>6254</v>
       </c>
       <c r="S16" t="n">
-        <v>15280.4402</v>
+        <v>182.42</v>
       </c>
       <c r="T16" t="n">
-        <v>10.206212</v>
+        <v>3.632</v>
       </c>
       <c r="U16" t="n">
-        <v>2370.30170202</v>
+        <v>60.17220000000001</v>
       </c>
       <c r="V16" t="n">
-        <v>10.04</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>4330.2228</v>
+        <v>75.48</v>
       </c>
       <c r="X16" t="n">
-        <v>130.3912</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="17">
@@ -10810,22 +10810,22 @@
         <v>25971</v>
       </c>
       <c r="S17" t="n">
-        <v>3150.1909</v>
+        <v>46.99</v>
       </c>
       <c r="T17" t="n">
-        <v>4150.234503</v>
+        <v>57.753</v>
       </c>
       <c r="U17" t="n">
-        <v>2120.1125</v>
+        <v>33.35</v>
       </c>
       <c r="V17" t="n">
-        <v>20.12</v>
+        <v>3.2</v>
       </c>
       <c r="W17" t="n">
-        <v>5180.6422</v>
+        <v>74.62</v>
       </c>
       <c r="X17" t="n">
-        <v>80.12</v>
+        <v>9.200000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -10898,22 +10898,22 @@
         <v>24004</v>
       </c>
       <c r="S18" t="n">
-        <v>5220.3514</v>
+        <v>75.63999999999999</v>
       </c>
       <c r="T18" t="n">
-        <v>10.134919</v>
+        <v>2.809</v>
       </c>
       <c r="U18" t="n">
-        <v>2160.392502</v>
+        <v>40.15199999999999</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>2280.4228</v>
+        <v>52.48</v>
       </c>
       <c r="X18" t="n">
-        <v>140.2406</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="19">
@@ -10986,22 +10986,22 @@
         <v>11109</v>
       </c>
       <c r="S19" t="n">
-        <v>13250.2811</v>
+        <v>157.91</v>
       </c>
       <c r="T19" t="n">
-        <v>20.27401</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="U19" t="n">
-        <v>1240.2938</v>
+        <v>37.28000000000001</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>2220.4423</v>
+        <v>46.63</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3927</v>
+        <v>17.17</v>
       </c>
     </row>
     <row r="20">
@@ -11074,22 +11074,22 @@
         <v>20254</v>
       </c>
       <c r="S20" t="n">
-        <v>12170.3013</v>
+        <v>140.13</v>
       </c>
       <c r="T20" t="n">
-        <v>10.10312213</v>
+        <v>2.3333</v>
       </c>
       <c r="U20" t="n">
-        <v>160.233605</v>
+        <v>18.665</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
       <c r="W20" t="n">
-        <v>5240.481799999999</v>
+        <v>78.98</v>
       </c>
       <c r="X20" t="n">
-        <v>170.1519</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="21">
@@ -11162,22 +11162,22 @@
         <v>32028</v>
       </c>
       <c r="S21" t="n">
-        <v>8190.200800000001</v>
+        <v>101.08</v>
       </c>
       <c r="T21" t="n">
-        <v>10.23441</v>
+        <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2230.3638</v>
+        <v>46.98</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>2190.3518</v>
+        <v>42.67999999999999</v>
       </c>
       <c r="X21" t="n">
-        <v>130.3627</v>
+        <v>16.87</v>
       </c>
     </row>
     <row r="22">
@@ -11250,22 +11250,22 @@
         <v>36039</v>
       </c>
       <c r="S22" t="n">
-        <v>13200.35</v>
+        <v>153.5</v>
       </c>
       <c r="T22" t="n">
-        <v>10.32341909</v>
+        <v>4.559899999999999</v>
       </c>
       <c r="U22" t="n">
-        <v>3140.350903</v>
+        <v>47.593</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>8190.3819</v>
+        <v>102.99</v>
       </c>
       <c r="X22" t="n">
-        <v>110.1516</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="23">
@@ -11341,16 +11341,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1037</v>
+        <v>1.37</v>
       </c>
       <c r="U23" t="n">
-        <v>150.4033</v>
+        <v>19.33000000000001</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>19590.41</v>
+        <v>253.1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -11426,22 +11426,22 @@
         <v>25901</v>
       </c>
       <c r="S24" t="n">
-        <v>6340.331700000001</v>
+        <v>97.47000000000001</v>
       </c>
       <c r="T24" t="n">
-        <v>30.35451301</v>
+        <v>6.9631</v>
       </c>
       <c r="U24" t="n">
-        <v>2070.23230002</v>
+        <v>29.5302</v>
       </c>
       <c r="V24" t="n">
-        <v>10.04</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1310.3038</v>
+        <v>44.38</v>
       </c>
       <c r="X24" t="n">
-        <v>250.3118</v>
+        <v>28.27999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -11514,22 +11514,22 @@
         <v>20330</v>
       </c>
       <c r="S25" t="n">
-        <v>14110.3402</v>
+        <v>154.42</v>
       </c>
       <c r="T25" t="n">
-        <v>10.152818</v>
+        <v>2.798</v>
       </c>
       <c r="U25" t="n">
-        <v>90.08190902000001</v>
+        <v>9.9992</v>
       </c>
       <c r="V25" t="n">
-        <v>20.13</v>
+        <v>3.3</v>
       </c>
       <c r="W25" t="n">
-        <v>2230.332</v>
+        <v>46.5</v>
       </c>
       <c r="X25" t="n">
-        <v>110.1702</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="26">
@@ -11602,22 +11602,22 @@
         <v>17640</v>
       </c>
       <c r="S26" t="n">
-        <v>6200.2218</v>
+        <v>82.38</v>
       </c>
       <c r="T26" t="n">
-        <v>20.18250901</v>
+        <v>4.0591</v>
       </c>
       <c r="U26" t="n">
-        <v>3210.472502</v>
+        <v>55.952</v>
       </c>
       <c r="V26" t="n">
-        <v>0.000602</v>
+        <v>0.062</v>
       </c>
       <c r="W26" t="n">
-        <v>4390.4215</v>
+        <v>83.35000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>4260.2005</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="27">
@@ -11690,22 +11690,22 @@
         <v>19122</v>
       </c>
       <c r="S27" t="n">
-        <v>1210.3319</v>
+        <v>34.48999999999999</v>
       </c>
       <c r="T27" t="n">
-        <v>10.17441205</v>
+        <v>3.152499999999999</v>
       </c>
       <c r="U27" t="n">
-        <v>2090.254119</v>
+        <v>31.929</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>6260.4631</v>
+        <v>90.91</v>
       </c>
       <c r="X27" t="n">
-        <v>70.1724</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="28">
@@ -11778,22 +11778,22 @@
         <v>8373</v>
       </c>
       <c r="S28" t="n">
-        <v>8060.3718</v>
+        <v>89.88000000000001</v>
       </c>
       <c r="T28" t="n">
-        <v>80.19361701999999</v>
+        <v>10.2772</v>
       </c>
       <c r="U28" t="n">
-        <v>3150.2708</v>
+        <v>47.78</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>8350.300499999999</v>
+        <v>118.05</v>
       </c>
       <c r="X28" t="n">
-        <v>1160.2105</v>
+        <v>28.15</v>
       </c>
     </row>
     <row r="29">
@@ -11866,22 +11866,22 @@
         <v>9816</v>
       </c>
       <c r="S29" t="n">
-        <v>1100.2007</v>
+        <v>22.07</v>
       </c>
       <c r="T29" t="n">
-        <v>40.192405</v>
+        <v>6.145</v>
       </c>
       <c r="U29" t="n">
-        <v>2210.3226050108</v>
+        <v>44.46518</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>5390.431</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="X29" t="n">
-        <v>1040.4005</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="30">
@@ -11954,22 +11954,22 @@
         <v>11168</v>
       </c>
       <c r="S30" t="n">
-        <v>3100.1618</v>
+        <v>41.78</v>
       </c>
       <c r="T30" t="n">
-        <v>10.364103</v>
+        <v>5.013</v>
       </c>
       <c r="U30" t="n">
-        <v>90.2655</v>
+        <v>12.15</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>9330.361699999999</v>
+        <v>126.77</v>
       </c>
       <c r="X30" t="n">
-        <v>160.182</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -12042,22 +12042,22 @@
         <v>25410</v>
       </c>
       <c r="S31" t="n">
-        <v>2220.4722</v>
+        <v>46.92000000000001</v>
       </c>
       <c r="T31" t="n">
-        <v>40.173219</v>
+        <v>6.039</v>
       </c>
       <c r="U31" t="n">
-        <v>140.363917</v>
+        <v>18.007</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>2470.5232</v>
+        <v>72.52</v>
       </c>
       <c r="X31" t="n">
-        <v>190.4119</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="32">
@@ -12130,19 +12130,19 @@
         <v>36600</v>
       </c>
       <c r="S32" t="n">
-        <v>0.06</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1433</v>
+        <v>1.73</v>
       </c>
       <c r="U32" t="n">
-        <v>270.3233</v>
+        <v>30.53</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>18540.53</v>
+        <v>239.3</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -12218,22 +12218,22 @@
         <v>20201</v>
       </c>
       <c r="S33" t="n">
-        <v>3240.271999999999</v>
+        <v>56.9</v>
       </c>
       <c r="T33" t="n">
-        <v>40.102122</v>
+        <v>5.231999999999999</v>
       </c>
       <c r="U33" t="n">
-        <v>100.224105</v>
+        <v>12.615</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>5170.2343</v>
+        <v>69.72999999999999</v>
       </c>
       <c r="X33" t="n">
-        <v>5180.252</v>
+        <v>70.69999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -12306,22 +12306,22 @@
         <v>31113</v>
       </c>
       <c r="S34" t="n">
-        <v>6160.4519</v>
+        <v>80.69</v>
       </c>
       <c r="T34" t="n">
-        <v>50.29431</v>
+        <v>8.340000000000002</v>
       </c>
       <c r="U34" t="n">
-        <v>3160.383699999999</v>
+        <v>50.17</v>
       </c>
       <c r="V34" t="n">
-        <v>60.2305</v>
+        <v>8.35</v>
       </c>
       <c r="W34" t="n">
-        <v>5480.5641</v>
+        <v>104.01</v>
       </c>
       <c r="X34" t="n">
-        <v>260.3204</v>
+        <v>29.24</v>
       </c>
     </row>
     <row r="35">
@@ -12394,22 +12394,22 @@
         <v>22011</v>
       </c>
       <c r="S35" t="n">
-        <v>4170.4826</v>
+        <v>62.06</v>
       </c>
       <c r="T35" t="n">
-        <v>1090.31201308</v>
+        <v>22.3138</v>
       </c>
       <c r="U35" t="n">
-        <v>6290.3522</v>
+        <v>92.71999999999998</v>
       </c>
       <c r="V35" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W35" t="n">
-        <v>5220.392608000001</v>
+        <v>76.16800000000001</v>
       </c>
       <c r="X35" t="n">
-        <v>100.241</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="36">
@@ -12482,22 +12482,22 @@
         <v>17030</v>
       </c>
       <c r="S36" t="n">
-        <v>11230.1911</v>
+        <v>135.01</v>
       </c>
       <c r="T36" t="n">
-        <v>10.273203</v>
+        <v>4.023</v>
       </c>
       <c r="U36" t="n">
-        <v>2310.4022</v>
+        <v>55.22</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>220.3223</v>
+        <v>25.43</v>
       </c>
       <c r="X36" t="n">
-        <v>60.3521</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -12570,22 +12570,22 @@
         <v>32115</v>
       </c>
       <c r="S37" t="n">
-        <v>5090.2408</v>
+        <v>61.48</v>
       </c>
       <c r="T37" t="n">
-        <v>10.23281002</v>
+        <v>3.5902</v>
       </c>
       <c r="U37" t="n">
-        <v>1150.26290002</v>
+        <v>27.8902</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>5420.441503</v>
+        <v>96.553</v>
       </c>
       <c r="X37" t="n">
-        <v>2180.2908</v>
+        <v>40.98</v>
       </c>
     </row>
     <row r="38">
@@ -12658,22 +12658,22 @@
         <v>31081</v>
       </c>
       <c r="S38" t="n">
-        <v>11210.1911</v>
+        <v>133.01</v>
       </c>
       <c r="T38" t="n">
-        <v>10.28321</v>
+        <v>4.13</v>
       </c>
       <c r="U38" t="n">
-        <v>2270.3931</v>
+        <v>51.21</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1210.4221</v>
+        <v>35.41</v>
       </c>
       <c r="X38" t="n">
-        <v>50.4614</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="39">
@@ -12746,22 +12746,22 @@
         <v>23588</v>
       </c>
       <c r="S39" t="n">
-        <v>6330.4515</v>
+        <v>97.65000000000001</v>
       </c>
       <c r="T39" t="n">
-        <v>0.276709</v>
+        <v>3.379</v>
       </c>
       <c r="U39" t="n">
-        <v>3340.4728</v>
+        <v>68.98</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1510.3737</v>
+        <v>65.07000000000001</v>
       </c>
       <c r="X39" t="n">
-        <v>90.3707</v>
+        <v>12.77</v>
       </c>
     </row>
     <row r="40">
@@ -12834,22 +12834,22 @@
         <v>12114</v>
       </c>
       <c r="S40" t="n">
-        <v>11250.23</v>
+        <v>137.3</v>
       </c>
       <c r="T40" t="n">
-        <v>30.264506</v>
+        <v>6.055999999999999</v>
       </c>
       <c r="U40" t="n">
-        <v>5340.422299999999</v>
+        <v>88.42999999999999</v>
       </c>
       <c r="V40" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W40" t="n">
-        <v>4610.4145</v>
+        <v>105.55</v>
       </c>
       <c r="X40" t="n">
-        <v>2240.2609</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="41">
@@ -12922,22 +12922,22 @@
         <v>20141</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3835</v>
+        <v>17.15</v>
       </c>
       <c r="T41" t="n">
-        <v>10.042215</v>
+        <v>1.635</v>
       </c>
       <c r="U41" t="n">
-        <v>100.112122</v>
+        <v>11.332</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0405</v>
+        <v>0.45</v>
       </c>
       <c r="W41" t="n">
-        <v>1330.2733</v>
+        <v>46.02999999999999</v>
       </c>
       <c r="X41" t="n">
-        <v>130.19</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="42">
@@ -13010,22 +13010,22 @@
         <v>19639</v>
       </c>
       <c r="S42" t="n">
-        <v>4210.2209</v>
+        <v>63.29000000000001</v>
       </c>
       <c r="T42" t="n">
-        <v>0.163622</v>
+        <v>1.982</v>
       </c>
       <c r="U42" t="n">
-        <v>1160.3026</v>
+        <v>29.26000000000001</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>8330.412600000001</v>
+        <v>117.36</v>
       </c>
       <c r="X42" t="n">
-        <v>80.08</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -13098,22 +13098,22 @@
         <v>17325</v>
       </c>
       <c r="S43" t="n">
-        <v>8170.251099999999</v>
+        <v>99.61</v>
       </c>
       <c r="T43" t="n">
-        <v>20.27351</v>
+        <v>5.06</v>
       </c>
       <c r="U43" t="n">
-        <v>1260.3038</v>
+        <v>39.38</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2170.3916</v>
+        <v>41.06</v>
       </c>
       <c r="X43" t="n">
-        <v>90.402</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="44">
@@ -13186,22 +13186,22 @@
         <v>36036</v>
       </c>
       <c r="S44" t="n">
-        <v>1200.3518</v>
+        <v>33.68</v>
       </c>
       <c r="T44" t="n">
-        <v>10.12171002</v>
+        <v>2.3802</v>
       </c>
       <c r="U44" t="n">
-        <v>2200.222101</v>
+        <v>42.411</v>
       </c>
       <c r="V44" t="n">
-        <v>0.000309</v>
+        <v>0.039</v>
       </c>
       <c r="W44" t="n">
-        <v>4470.282299999999</v>
+        <v>90.03</v>
       </c>
       <c r="X44" t="n">
-        <v>1150.2015</v>
+        <v>27.15</v>
       </c>
     </row>
     <row r="45">
@@ -13274,22 +13274,22 @@
         <v>19641</v>
       </c>
       <c r="S45" t="n">
-        <v>5150.2619</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="T45" t="n">
-        <v>30.133217</v>
+        <v>4.637</v>
       </c>
       <c r="U45" t="n">
-        <v>2170.293003</v>
+        <v>40.203</v>
       </c>
       <c r="V45" t="n">
-        <v>0.021006</v>
+        <v>0.306</v>
       </c>
       <c r="W45" t="n">
-        <v>5340.3717</v>
+        <v>87.86999999999999</v>
       </c>
       <c r="X45" t="n">
-        <v>30.1007</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="46">
@@ -13362,22 +13362,22 @@
         <v>23410</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3822</v>
+        <v>17.02</v>
       </c>
       <c r="T46" t="n">
-        <v>30.274118</v>
+        <v>6.128</v>
       </c>
       <c r="U46" t="n">
-        <v>280.304711</v>
+        <v>31.481</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>6320.502100000001</v>
+        <v>97.21000000000001</v>
       </c>
       <c r="X46" t="n">
-        <v>210.371</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="47">
@@ -13450,22 +13450,22 @@
         <v>17030</v>
       </c>
       <c r="S47" t="n">
-        <v>13210.2508</v>
+        <v>153.58</v>
       </c>
       <c r="T47" t="n">
-        <v>20.223007</v>
+        <v>4.507</v>
       </c>
       <c r="U47" t="n">
-        <v>2390.3531</v>
+        <v>62.80999999999999</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>2150.4321</v>
+        <v>39.51000000000001</v>
       </c>
       <c r="X47" t="n">
-        <v>90.32199999999999</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="48">
@@ -13538,22 +13538,22 @@
         <v>17100</v>
       </c>
       <c r="S48" t="n">
-        <v>13180.2806</v>
+        <v>150.86</v>
       </c>
       <c r="T48" t="n">
-        <v>20.21281</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="U48" t="n">
-        <v>2310.353</v>
+        <v>54.8</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>2180.4015</v>
+        <v>42.15000000000001</v>
       </c>
       <c r="X48" t="n">
-        <v>70.42139999999999</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="49">
@@ -13626,22 +13626,22 @@
         <v>9231</v>
       </c>
       <c r="S49" t="n">
-        <v>4150.4317</v>
+        <v>59.46999999999999</v>
       </c>
       <c r="T49" t="n">
-        <v>90.094808</v>
+        <v>10.388</v>
       </c>
       <c r="U49" t="n">
-        <v>3320.4522</v>
+        <v>66.72</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>8190.3714</v>
+        <v>102.84</v>
       </c>
       <c r="X49" t="n">
-        <v>1180.1604</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="50">
@@ -13714,22 +13714,22 @@
         <v>20055</v>
       </c>
       <c r="S50" t="n">
-        <v>1100.2403</v>
+        <v>22.43</v>
       </c>
       <c r="T50" t="n">
-        <v>10.1427110303</v>
+        <v>2.68133</v>
       </c>
       <c r="U50" t="n">
-        <v>80.09150000000001</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="V50" t="n">
-        <v>20.07</v>
+        <v>2.7</v>
       </c>
       <c r="W50" t="n">
-        <v>3300.2317</v>
+        <v>62.47</v>
       </c>
       <c r="X50" t="n">
-        <v>90.19</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="51">
@@ -13802,22 +13802,22 @@
         <v>25629</v>
       </c>
       <c r="S51" t="n">
-        <v>6080.1809</v>
+        <v>69.89</v>
       </c>
       <c r="T51" t="n">
-        <v>20.31271701</v>
+        <v>5.3871</v>
       </c>
       <c r="U51" t="n">
-        <v>90.31261599999999</v>
+        <v>12.376</v>
       </c>
       <c r="V51" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="W51" t="n">
-        <v>6180.3415</v>
+        <v>81.55</v>
       </c>
       <c r="X51" t="n">
-        <v>1110.33</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="52">
@@ -13890,22 +13890,22 @@
         <v>25901</v>
       </c>
       <c r="S52" t="n">
-        <v>11220.4102</v>
+        <v>136.12</v>
       </c>
       <c r="T52" t="n">
-        <v>30.3928</v>
+        <v>7.18</v>
       </c>
       <c r="U52" t="n">
-        <v>4200.3208</v>
+        <v>63.27999999999999</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>300.2741</v>
+        <v>33.11</v>
       </c>
       <c r="X52" t="n">
-        <v>180.2914</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="53">
@@ -13978,22 +13978,22 @@
         <v>25584</v>
       </c>
       <c r="S53" t="n">
-        <v>2190.2912</v>
+        <v>42.02</v>
       </c>
       <c r="T53" t="n">
-        <v>90.353703</v>
+        <v>12.873</v>
       </c>
       <c r="U53" t="n">
-        <v>130.2726</v>
+        <v>15.96</v>
       </c>
       <c r="V53" t="n">
-        <v>1060.090105</v>
+        <v>16.915</v>
       </c>
       <c r="W53" t="n">
-        <v>6300.461600000001</v>
+        <v>94.76000000000001</v>
       </c>
       <c r="X53" t="n">
-        <v>170.2612</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="54">
@@ -14066,22 +14066,22 @@
         <v>16742</v>
       </c>
       <c r="S54" t="n">
-        <v>8220.3117</v>
+        <v>105.27</v>
       </c>
       <c r="T54" t="n">
-        <v>30.082624</v>
+        <v>4.084000000000001</v>
       </c>
       <c r="U54" t="n">
-        <v>250.412704</v>
+        <v>29.374</v>
       </c>
       <c r="V54" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W54" t="n">
-        <v>5340.351500000001</v>
+        <v>87.64999999999999</v>
       </c>
       <c r="X54" t="n">
-        <v>180.3409</v>
+        <v>21.49</v>
       </c>
     </row>
     <row r="55">
@@ -14154,22 +14154,22 @@
         <v>25126</v>
       </c>
       <c r="S55" t="n">
-        <v>2210.4018</v>
+        <v>45.18</v>
       </c>
       <c r="T55" t="n">
-        <v>120.1849</v>
+        <v>14.29</v>
       </c>
       <c r="U55" t="n">
-        <v>2200.2428</v>
+        <v>42.68</v>
       </c>
       <c r="V55" t="n">
-        <v>0.0103</v>
+        <v>0.13</v>
       </c>
       <c r="W55" t="n">
-        <v>6400.501600000001</v>
+        <v>105.16</v>
       </c>
       <c r="X55" t="n">
-        <v>70.16250000000001</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="56">
@@ -14242,22 +14242,22 @@
         <v>8001</v>
       </c>
       <c r="S56" t="n">
-        <v>7160.3212</v>
+        <v>89.32000000000001</v>
       </c>
       <c r="T56" t="n">
-        <v>20.16361906</v>
+        <v>3.9796</v>
       </c>
       <c r="U56" t="n">
-        <v>1240.372906</v>
+        <v>37.996</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W56" t="n">
-        <v>3250.5127</v>
+        <v>60.37</v>
       </c>
       <c r="X56" t="n">
-        <v>1260.4201</v>
+        <v>40.21</v>
       </c>
     </row>
     <row r="57">
@@ -14330,22 +14330,22 @@
         <v>19591</v>
       </c>
       <c r="S57" t="n">
-        <v>12260.1804</v>
+        <v>147.84</v>
       </c>
       <c r="T57" t="n">
-        <v>10.193812</v>
+        <v>3.292</v>
       </c>
       <c r="U57" t="n">
-        <v>1190.3344</v>
+        <v>32.73999999999999</v>
       </c>
       <c r="V57" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W57" t="n">
-        <v>3340.4035</v>
+        <v>68.35000000000001</v>
       </c>
       <c r="X57" t="n">
-        <v>1080.1415</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="58">
@@ -14418,22 +14418,22 @@
         <v>20518</v>
       </c>
       <c r="S58" t="n">
-        <v>5290.310201089999</v>
+        <v>82.1219</v>
       </c>
       <c r="T58" t="n">
-        <v>80.20500801999999</v>
+        <v>10.5082</v>
       </c>
       <c r="U58" t="n">
-        <v>1220.2624</v>
+        <v>34.84</v>
       </c>
       <c r="V58" t="n">
-        <v>0.050004</v>
+        <v>0.504</v>
       </c>
       <c r="W58" t="n">
-        <v>6450.122200000001</v>
+        <v>106.42</v>
       </c>
       <c r="X58" t="n">
-        <v>6210.240000090001</v>
+        <v>83.40090000000001</v>
       </c>
     </row>
     <row r="59">
@@ -14506,22 +14506,22 @@
         <v>13720</v>
       </c>
       <c r="S59" t="n">
-        <v>8190.3516</v>
+        <v>102.66</v>
       </c>
       <c r="T59" t="n">
-        <v>30.124311</v>
+        <v>4.641</v>
       </c>
       <c r="U59" t="n">
-        <v>2230.503</v>
+        <v>48.3</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>2440.3741</v>
+        <v>68.11</v>
       </c>
       <c r="X59" t="n">
-        <v>250.2708</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="60">
@@ -14594,22 +14594,22 @@
         <v>10064</v>
       </c>
       <c r="S60" t="n">
-        <v>3110.222</v>
+        <v>43.4</v>
       </c>
       <c r="T60" t="n">
-        <v>40.2932040705</v>
+        <v>7.22475</v>
       </c>
       <c r="U60" t="n">
-        <v>130.313708</v>
+        <v>16.478</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>6460.4422</v>
+        <v>110.62</v>
       </c>
       <c r="X60" t="n">
-        <v>240.2918</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="61">
@@ -14682,22 +14682,22 @@
         <v>11217</v>
       </c>
       <c r="S61" t="n">
-        <v>3160.3024</v>
+        <v>49.23999999999999</v>
       </c>
       <c r="T61" t="n">
-        <v>70.30260699999999</v>
+        <v>10.267</v>
       </c>
       <c r="U61" t="n">
-        <v>1190.132501</v>
+        <v>30.551</v>
       </c>
       <c r="V61" t="n">
-        <v>0.0709</v>
+        <v>0.79</v>
       </c>
       <c r="W61" t="n">
-        <v>8370.2325</v>
+        <v>119.55</v>
       </c>
       <c r="X61" t="n">
-        <v>70.151</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="62">
@@ -14770,22 +14770,22 @@
         <v>30791</v>
       </c>
       <c r="S62" t="n">
-        <v>2170.3407</v>
+        <v>40.47</v>
       </c>
       <c r="T62" t="n">
-        <v>50.22293005</v>
+        <v>7.520499999999999</v>
       </c>
       <c r="U62" t="n">
-        <v>210.363509</v>
+        <v>24.959</v>
       </c>
       <c r="V62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="W62" t="n">
-        <v>6200.592499999999</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="X62" t="n">
-        <v>110.2205</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="63">
@@ -14858,22 +14858,22 @@
         <v>13176</v>
       </c>
       <c r="S63" t="n">
-        <v>2170.4308</v>
+        <v>41.38</v>
       </c>
       <c r="T63" t="n">
-        <v>30.13300905</v>
+        <v>4.609500000000001</v>
       </c>
       <c r="U63" t="n">
-        <v>1170.202408</v>
+        <v>29.248</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>7350.501899999999</v>
+        <v>110.19</v>
       </c>
       <c r="X63" t="n">
-        <v>3270.180499999999</v>
+        <v>58.85</v>
       </c>
     </row>
     <row r="64">
@@ -14946,22 +14946,22 @@
         <v>8300</v>
       </c>
       <c r="S64" t="n">
-        <v>3300.3717</v>
+        <v>63.87</v>
       </c>
       <c r="T64" t="n">
-        <v>50.08211005</v>
+        <v>6.0205</v>
       </c>
       <c r="U64" t="n">
-        <v>1300.282718</v>
+        <v>43.088</v>
       </c>
       <c r="V64" t="n">
-        <v>0.06030000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="W64" t="n">
-        <v>4270.4222</v>
+        <v>71.42</v>
       </c>
       <c r="X64" t="n">
-        <v>60.27</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -15034,22 +15034,22 @@
         <v>23850</v>
       </c>
       <c r="S65" t="n">
-        <v>10310.4105</v>
+        <v>135.15</v>
       </c>
       <c r="T65" t="n">
-        <v>20.364708</v>
+        <v>6.078</v>
       </c>
       <c r="U65" t="n">
-        <v>2240.27220002</v>
+        <v>46.92019999999999</v>
       </c>
       <c r="V65" t="n">
-        <v>10.04</v>
+        <v>1.4</v>
       </c>
       <c r="W65" t="n">
-        <v>2300.2331</v>
+        <v>52.61</v>
       </c>
       <c r="X65" t="n">
-        <v>160.5005</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="66">
@@ -15122,22 +15122,22 @@
         <v>20535</v>
       </c>
       <c r="S66" t="n">
-        <v>1070.2316</v>
+        <v>19.46</v>
       </c>
       <c r="T66" t="n">
-        <v>30.2033</v>
+        <v>5.33</v>
       </c>
       <c r="U66" t="n">
-        <v>5240.262106000001</v>
+        <v>76.816</v>
       </c>
       <c r="V66" t="n">
-        <v>0.0009</v>
+        <v>0.09</v>
       </c>
       <c r="W66" t="n">
-        <v>8290.27</v>
+        <v>111.7</v>
       </c>
       <c r="X66" t="n">
-        <v>1150.1005</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="67">
@@ -15210,19 +15210,19 @@
         <v>36206</v>
       </c>
       <c r="S67" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="T67" t="n">
-        <v>0.1241</v>
+        <v>1.61</v>
       </c>
       <c r="U67" t="n">
-        <v>200.4432</v>
+        <v>24.72</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>18500.52</v>
+        <v>235.2</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
@@ -15298,22 +15298,22 @@
         <v>30300</v>
       </c>
       <c r="S68" t="n">
-        <v>3090.1925</v>
+        <v>41.15000000000001</v>
       </c>
       <c r="T68" t="n">
-        <v>70.354714</v>
+        <v>10.984</v>
       </c>
       <c r="U68" t="n">
-        <v>2220.351713</v>
+        <v>45.68299999999999</v>
       </c>
       <c r="V68" t="n">
-        <v>8.080000000000001e-06</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="W68" t="n">
-        <v>4410.382299999999</v>
+        <v>85.03</v>
       </c>
       <c r="X68" t="n">
-        <v>120.4111</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="69">
@@ -15386,22 +15386,22 @@
         <v>31018</v>
       </c>
       <c r="S69" t="n">
-        <v>9270.3614</v>
+        <v>120.74</v>
       </c>
       <c r="T69" t="n">
-        <v>20.24370805</v>
+        <v>4.7785</v>
       </c>
       <c r="U69" t="n">
-        <v>1250.202113</v>
+        <v>37.223</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>2360.2516</v>
+        <v>58.66</v>
       </c>
       <c r="X69" t="n">
-        <v>2120.2907</v>
+        <v>34.97000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -15474,22 +15474,22 @@
         <v>20299</v>
       </c>
       <c r="S70" t="n">
-        <v>5290.3412</v>
+        <v>82.52000000000001</v>
       </c>
       <c r="T70" t="n">
-        <v>50.33281400000001</v>
+        <v>8.593999999999999</v>
       </c>
       <c r="U70" t="n">
-        <v>1230.2431</v>
+        <v>35.71</v>
       </c>
       <c r="V70" t="n">
-        <v>20.13</v>
+        <v>3.3</v>
       </c>
       <c r="W70" t="n">
-        <v>4250.3423</v>
+        <v>68.63</v>
       </c>
       <c r="X70" t="n">
-        <v>80.41079999999999</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="71">
@@ -15562,22 +15562,22 @@
         <v>12064</v>
       </c>
       <c r="S71" t="n">
-        <v>120.4626</v>
+        <v>16.86</v>
       </c>
       <c r="T71" t="n">
-        <v>4140.36250806</v>
+        <v>57.85860000000001</v>
       </c>
       <c r="U71" t="n">
-        <v>4380.402314999999</v>
+        <v>82.24499999999999</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>9330.521799999999</v>
+        <v>128.38</v>
       </c>
       <c r="X71" t="n">
-        <v>200.3426</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="72">
@@ -15650,22 +15650,22 @@
         <v>16404</v>
       </c>
       <c r="S72" t="n">
-        <v>7190.280300000001</v>
+        <v>91.83</v>
       </c>
       <c r="T72" t="n">
-        <v>30.09382807</v>
+        <v>4.3087</v>
       </c>
       <c r="U72" t="n">
-        <v>4250.261200020001</v>
+        <v>67.72019999999999</v>
       </c>
       <c r="V72" t="n">
-        <v>10.04</v>
+        <v>1.4</v>
       </c>
       <c r="W72" t="n">
-        <v>6210.493000000001</v>
+        <v>86.2</v>
       </c>
       <c r="X72" t="n">
-        <v>100.1606</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="73">
@@ -15738,22 +15738,22 @@
         <v>11109</v>
       </c>
       <c r="S73" t="n">
-        <v>13260.3011</v>
+        <v>159.11</v>
       </c>
       <c r="T73" t="n">
-        <v>20.333903</v>
+        <v>5.693</v>
       </c>
       <c r="U73" t="n">
-        <v>1200.3129</v>
+        <v>33.39</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>1230.3723</v>
+        <v>36.93</v>
       </c>
       <c r="X73" t="n">
-        <v>100.4327</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="74">
@@ -15826,22 +15826,22 @@
         <v>3000</v>
       </c>
       <c r="S74" t="n">
-        <v>6260.3907</v>
+        <v>89.97</v>
       </c>
       <c r="T74" t="n">
-        <v>0.22450705</v>
+        <v>2.6575</v>
       </c>
       <c r="U74" t="n">
-        <v>100.3128</v>
+        <v>13.38</v>
       </c>
       <c r="V74" t="n">
-        <v>0.040307</v>
+        <v>0.437</v>
       </c>
       <c r="W74" t="n">
-        <v>5330.440799999999</v>
+        <v>87.48</v>
       </c>
       <c r="X74" t="n">
-        <v>2120.2221</v>
+        <v>34.41</v>
       </c>
     </row>
     <row r="75">
@@ -15914,22 +15914,22 @@
         <v>25917</v>
       </c>
       <c r="S75" t="n">
-        <v>11210.1911</v>
+        <v>133.01</v>
       </c>
       <c r="T75" t="n">
-        <v>10.28321</v>
+        <v>4.13</v>
       </c>
       <c r="U75" t="n">
-        <v>1320.3631</v>
+        <v>45.91</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>1210.4221</v>
+        <v>35.41</v>
       </c>
       <c r="X75" t="n">
-        <v>50.4614</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="76">
@@ -16002,22 +16002,22 @@
         <v>31026</v>
       </c>
       <c r="S76" t="n">
-        <v>8140.3313</v>
+        <v>97.43000000000001</v>
       </c>
       <c r="T76" t="n">
-        <v>60.29451</v>
+        <v>9.360000000000001</v>
       </c>
       <c r="U76" t="n">
-        <v>4120.363708999999</v>
+        <v>55.979</v>
       </c>
       <c r="V76" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W76" t="n">
-        <v>3390.572799999999</v>
+        <v>74.97999999999999</v>
       </c>
       <c r="X76" t="n">
-        <v>200.3722</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="77">
@@ -16090,22 +16090,22 @@
         <v>23496</v>
       </c>
       <c r="S77" t="n">
-        <v>9200.420700000001</v>
+        <v>114.27</v>
       </c>
       <c r="T77" t="n">
-        <v>10.11492</v>
+        <v>2.61</v>
       </c>
       <c r="U77" t="n">
-        <v>4410.451902000001</v>
+        <v>85.69200000000001</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>6190.471799999999</v>
+        <v>83.88</v>
       </c>
       <c r="X77" t="n">
-        <v>1100.2407</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="78">
@@ -16178,22 +16178,22 @@
         <v>20031</v>
       </c>
       <c r="S78" t="n">
-        <v>6070.0914</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="T78" t="n">
-        <v>1020.15101208</v>
+        <v>13.6128</v>
       </c>
       <c r="U78" t="n">
-        <v>1120.152601</v>
+        <v>23.761</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>11180.2609</v>
+        <v>130.69</v>
       </c>
       <c r="X78" t="n">
-        <v>1040.03</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="79">
@@ -16266,22 +16266,22 @@
         <v>7025</v>
       </c>
       <c r="S79" t="n">
-        <v>2190.191699999999</v>
+        <v>41.07</v>
       </c>
       <c r="T79" t="n">
-        <v>40.193709</v>
+        <v>6.279000000000001</v>
       </c>
       <c r="U79" t="n">
-        <v>4250.3018</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>2580.413300000001</v>
+        <v>82.43000000000001</v>
       </c>
       <c r="X79" t="n">
-        <v>210.1303</v>
+        <v>22.33</v>
       </c>
     </row>
     <row r="80">
@@ -16354,22 +16354,22 @@
         <v>18005</v>
       </c>
       <c r="S80" t="n">
-        <v>2160.2511</v>
+        <v>38.61000000000001</v>
       </c>
       <c r="T80" t="n">
-        <v>60.334515</v>
+        <v>9.765000000000002</v>
       </c>
       <c r="U80" t="n">
-        <v>1120.3521</v>
+        <v>25.71</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>7470.312</v>
+        <v>120.3</v>
       </c>
       <c r="X80" t="n">
-        <v>2290.1904</v>
+        <v>50.94</v>
       </c>
     </row>
     <row r="81">
@@ -16442,22 +16442,22 @@
         <v>20111</v>
       </c>
       <c r="S81" t="n">
-        <v>10210.2615</v>
+        <v>123.75</v>
       </c>
       <c r="T81" t="n">
-        <v>20.234034</v>
+        <v>4.734</v>
       </c>
       <c r="U81" t="n">
-        <v>1210.243809</v>
+        <v>33.78899999999999</v>
       </c>
       <c r="V81" t="n">
-        <v>10.050309</v>
+        <v>1.539</v>
       </c>
       <c r="W81" t="n">
-        <v>5340.673</v>
+        <v>91</v>
       </c>
       <c r="X81" t="n">
-        <v>160.4519</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="82">
@@ -16530,22 +16530,22 @@
         <v>20326</v>
       </c>
       <c r="S82" t="n">
-        <v>1030.2014</v>
+        <v>15.14</v>
       </c>
       <c r="T82" t="n">
-        <v>50.34282204000001</v>
+        <v>8.702399999999999</v>
       </c>
       <c r="U82" t="n">
-        <v>2230.383310999999</v>
+        <v>47.14100000000001</v>
       </c>
       <c r="V82" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W82" t="n">
-        <v>14380.3514</v>
+        <v>181.64</v>
       </c>
       <c r="X82" t="n">
-        <v>130.2217</v>
+        <v>15.37</v>
       </c>
     </row>
     <row r="83">
@@ -16618,19 +16618,19 @@
         <v>36101</v>
       </c>
       <c r="S83" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="T83" t="n">
-        <v>0.1544</v>
+        <v>1.94</v>
       </c>
       <c r="U83" t="n">
-        <v>320.5147</v>
+        <v>37.57</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>15620.51</v>
+        <v>217.1</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
@@ -16706,22 +16706,22 @@
         <v>12763</v>
       </c>
       <c r="S84" t="n">
-        <v>3150.3917</v>
+        <v>49.07000000000001</v>
       </c>
       <c r="T84" t="n">
-        <v>10.18371806</v>
+        <v>3.1886</v>
       </c>
       <c r="U84" t="n">
-        <v>3260.3026</v>
+        <v>59.26</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>7250.412300000001</v>
+        <v>99.32999999999998</v>
       </c>
       <c r="X84" t="n">
-        <v>1040.2504</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="85">
@@ -16794,22 +16794,22 @@
         <v>25154</v>
       </c>
       <c r="S85" t="n">
-        <v>7220.2917</v>
+        <v>95.07000000000001</v>
       </c>
       <c r="T85" t="n">
-        <v>70.22231604999999</v>
+        <v>9.4465</v>
       </c>
       <c r="U85" t="n">
-        <v>140.283602</v>
+        <v>17.162</v>
       </c>
       <c r="V85" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W85" t="n">
-        <v>3290.2622</v>
+        <v>61.82</v>
       </c>
       <c r="X85" t="n">
-        <v>120.2513</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="86">
@@ -16882,22 +16882,22 @@
         <v>8015</v>
       </c>
       <c r="S86" t="n">
-        <v>3280.470600000001</v>
+        <v>62.76</v>
       </c>
       <c r="T86" t="n">
-        <v>20.195314</v>
+        <v>4.444</v>
       </c>
       <c r="U86" t="n">
-        <v>3370.463207</v>
+        <v>71.92699999999999</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>5400.462</v>
+        <v>94.8</v>
       </c>
       <c r="X86" t="n">
-        <v>4050.170903</v>
+        <v>46.793</v>
       </c>
     </row>
     <row r="87">
@@ -16970,22 +16970,22 @@
         <v>20284</v>
       </c>
       <c r="S87" t="n">
-        <v>1200.3221</v>
+        <v>33.41</v>
       </c>
       <c r="T87" t="n">
-        <v>30.164423</v>
+        <v>5.063000000000001</v>
       </c>
       <c r="U87" t="n">
-        <v>1150.202912</v>
+        <v>27.302</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>4310.442</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="X87" t="n">
-        <v>130.311603</v>
+        <v>16.263</v>
       </c>
     </row>
     <row r="88">
@@ -17058,22 +17058,22 @@
         <v>26239</v>
       </c>
       <c r="S88" t="n">
-        <v>6210.320699999999</v>
+        <v>84.27</v>
       </c>
       <c r="T88" t="n">
-        <v>10.23151</v>
+        <v>3.46</v>
       </c>
       <c r="U88" t="n">
-        <v>50.27210100000001</v>
+        <v>7.911</v>
       </c>
       <c r="V88" t="n">
-        <v>0.000302</v>
+        <v>0.032</v>
       </c>
       <c r="W88" t="n">
-        <v>3260.3415</v>
+        <v>59.55</v>
       </c>
       <c r="X88" t="n">
-        <v>30.1415</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="89">
@@ -17146,22 +17146,22 @@
         <v>15018</v>
       </c>
       <c r="S89" t="n">
-        <v>17250.27</v>
+        <v>197.7</v>
       </c>
       <c r="T89" t="n">
-        <v>0.131915</v>
+        <v>1.505</v>
       </c>
       <c r="U89" t="n">
-        <v>1160.213908</v>
+        <v>28.498</v>
       </c>
       <c r="V89" t="n">
-        <v>20.1603</v>
+        <v>3.63</v>
       </c>
       <c r="W89" t="n">
-        <v>3240.363612</v>
+        <v>57.972</v>
       </c>
       <c r="X89" t="n">
-        <v>250.410607</v>
+        <v>29.16699999999999</v>
       </c>
     </row>
     <row r="90">
@@ -17234,22 +17234,22 @@
         <v>19692</v>
       </c>
       <c r="S90" t="n">
-        <v>4160.3107</v>
+        <v>59.17000000000001</v>
       </c>
       <c r="T90" t="n">
-        <v>30.2030000705</v>
+        <v>5.300750000000001</v>
       </c>
       <c r="U90" t="n">
-        <v>4190.382302999999</v>
+        <v>63.03299999999999</v>
       </c>
       <c r="V90" t="n">
-        <v>0.0801</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W90" t="n">
-        <v>10400.3613</v>
+        <v>143.73</v>
       </c>
       <c r="X90" t="n">
-        <v>170.2005</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="91">
@@ -17322,22 +17322,22 @@
         <v>19044</v>
       </c>
       <c r="S91" t="n">
-        <v>11200.2918</v>
+        <v>133.08</v>
       </c>
       <c r="T91" t="n">
-        <v>20.104231</v>
+        <v>3.451</v>
       </c>
       <c r="U91" t="n">
-        <v>2160.23090202</v>
+        <v>38.3922</v>
       </c>
       <c r="V91" t="n">
-        <v>10.04</v>
+        <v>1.4</v>
       </c>
       <c r="W91" t="n">
-        <v>5180.532300000001</v>
+        <v>73.53</v>
       </c>
       <c r="X91" t="n">
-        <v>140.1803</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="92">
@@ -17410,19 +17410,19 @@
         <v>21503</v>
       </c>
       <c r="S92" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="T92" t="n">
-        <v>0.1943</v>
+        <v>2.33</v>
       </c>
       <c r="U92" t="n">
-        <v>270.4839</v>
+        <v>32.19</v>
       </c>
       <c r="V92" t="n">
         <v>0</v>
       </c>
       <c r="W92" t="n">
-        <v>19610.44</v>
+        <v>255.4</v>
       </c>
       <c r="X92" t="n">
         <v>0</v>
@@ -17498,22 +17498,22 @@
         <v>12743</v>
       </c>
       <c r="S93" t="n">
-        <v>3150.3109</v>
+        <v>48.19</v>
       </c>
       <c r="T93" t="n">
-        <v>20.193109</v>
+        <v>4.218999999999999</v>
       </c>
       <c r="U93" t="n">
-        <v>3250.271402</v>
+        <v>57.842</v>
       </c>
       <c r="V93" t="n">
         <v>0</v>
       </c>
       <c r="W93" t="n">
-        <v>3260.3522</v>
+        <v>59.72</v>
       </c>
       <c r="X93" t="n">
-        <v>130.1406</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="94">
@@ -17586,22 +17586,22 @@
         <v>11115</v>
       </c>
       <c r="S94" t="n">
-        <v>4100.2304</v>
+        <v>52.34</v>
       </c>
       <c r="T94" t="n">
-        <v>10.19512703</v>
+        <v>3.4373</v>
       </c>
       <c r="U94" t="n">
-        <v>4150.311900000001</v>
+        <v>58.29</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
       </c>
       <c r="W94" t="n">
-        <v>5330.300999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="X94" t="n">
-        <v>1040.26</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="95">
@@ -17674,22 +17674,22 @@
         <v>31069</v>
       </c>
       <c r="S95" t="n">
-        <v>6230.4223</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="T95" t="n">
-        <v>50.26471</v>
+        <v>8.08</v>
       </c>
       <c r="U95" t="n">
-        <v>3340.323504999999</v>
+        <v>67.55500000000001</v>
       </c>
       <c r="V95" t="n">
-        <v>60.1505</v>
+        <v>7.55</v>
       </c>
       <c r="W95" t="n">
-        <v>5230.482300000001</v>
+        <v>78.03</v>
       </c>
       <c r="X95" t="n">
-        <v>1150.3006</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="96">
@@ -17762,22 +17762,22 @@
         <v>7815</v>
       </c>
       <c r="S96" t="n">
-        <v>12160.381408</v>
+        <v>139.948</v>
       </c>
       <c r="T96" t="n">
-        <v>10.172316</v>
+        <v>2.946</v>
       </c>
       <c r="U96" t="n">
-        <v>1120.282</v>
+        <v>25</v>
       </c>
       <c r="V96" t="n">
-        <v>10.0906</v>
+        <v>1.96</v>
       </c>
       <c r="W96" t="n">
-        <v>3370.2225</v>
+        <v>69.45</v>
       </c>
       <c r="X96" t="n">
-        <v>1150.3912</v>
+        <v>29.02</v>
       </c>
     </row>
     <row r="97">
@@ -17850,22 +17850,22 @@
         <v>10043</v>
       </c>
       <c r="S97" t="n">
-        <v>5140.3219</v>
+        <v>67.39</v>
       </c>
       <c r="T97" t="n">
-        <v>60.37260903</v>
+        <v>9.969299999999999</v>
       </c>
       <c r="U97" t="n">
-        <v>2260.2629</v>
+        <v>48.89</v>
       </c>
       <c r="V97" t="n">
-        <v>10.12</v>
+        <v>2.2</v>
       </c>
       <c r="W97" t="n">
-        <v>6330.330900000001</v>
+        <v>96.38999999999999</v>
       </c>
       <c r="X97" t="n">
-        <v>110.1818000902</v>
+        <v>12.98092</v>
       </c>
     </row>
     <row r="98">
@@ -17938,22 +17938,22 @@
         <v>2080</v>
       </c>
       <c r="S98" t="n">
-        <v>3140.210500000001</v>
+        <v>46.15000000000001</v>
       </c>
       <c r="T98" t="n">
-        <v>40.22260502</v>
+        <v>6.4652</v>
       </c>
       <c r="U98" t="n">
-        <v>4130.16120102</v>
+        <v>54.7212</v>
       </c>
       <c r="V98" t="n">
-        <v>0.0009</v>
+        <v>0.09</v>
       </c>
       <c r="W98" t="n">
-        <v>8270.449999999999</v>
+        <v>111.5</v>
       </c>
       <c r="X98" t="n">
-        <v>60.1905</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="99">
@@ -18026,22 +18026,22 @@
         <v>25525</v>
       </c>
       <c r="S99" t="n">
-        <v>13190.2811</v>
+        <v>151.91</v>
       </c>
       <c r="T99" t="n">
-        <v>20.32351</v>
+        <v>5.56</v>
       </c>
       <c r="U99" t="n">
-        <v>1280.3033</v>
+        <v>41.33000000000001</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>2170.4018</v>
+        <v>41.18</v>
       </c>
       <c r="X99" t="n">
-        <v>130.4227</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="100">
@@ -18114,22 +18114,22 @@
         <v>42003</v>
       </c>
       <c r="S100" t="n">
-        <v>11240.2111</v>
+        <v>136.21</v>
       </c>
       <c r="T100" t="n">
-        <v>10.333603</v>
+        <v>4.663</v>
       </c>
       <c r="U100" t="n">
-        <v>2230.4022</v>
+        <v>47.22</v>
       </c>
       <c r="V100" t="n">
         <v>0</v>
       </c>
       <c r="W100" t="n">
-        <v>230.3423</v>
+        <v>26.63</v>
       </c>
       <c r="X100" t="n">
-        <v>60.43210000000001</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="101">
@@ -18202,22 +18202,22 @@
         <v>25479</v>
       </c>
       <c r="S101" t="n">
-        <v>6280.311900000001</v>
+        <v>91.28999999999999</v>
       </c>
       <c r="T101" t="n">
-        <v>4090.202412</v>
+        <v>51.252</v>
       </c>
       <c r="U101" t="n">
-        <v>2150.2907</v>
+        <v>37.97</v>
       </c>
       <c r="V101" t="n">
         <v>0</v>
       </c>
       <c r="W101" t="n">
-        <v>3320.3905</v>
+        <v>65.95</v>
       </c>
       <c r="X101" t="n">
-        <v>150.31</v>
+        <v>18.1</v>
       </c>
     </row>
   </sheetData>
